--- a/data/01_pd-samples/25_12-01_pd_samples-edited.xlsx
+++ b/data/01_pd-samples/25_12-01_pd_samples-edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caprinapugliese/Documents/School/Uconn/2024-26_Grad_School/Dagilis-lab/WNS-project/data/01_pd-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C246ABD-5D4D-BC46-AD95-EBD99E28E25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B159C8-9B06-A549-9BD1-56FB0FA12822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="-6700" windowWidth="21600" windowHeight="21080" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
   </bookViews>
   <sheets>
     <sheet name="25_10-16_pd_samples-edited" sheetId="1" r:id="rId1"/>
@@ -1453,7 +1453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1639,6 +1639,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1801,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1818,6 +1824,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1892,7 +1899,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}" name="Table1" displayName="Table1" ref="A1:X75" totalsRowShown="0">
   <autoFilter ref="A1:X75" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X75">
-    <sortCondition ref="B1:B75"/>
+    <sortCondition descending="1" ref="L1:L75"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{30EFF156-3D30-484A-8AD7-EA85D1CE06B4}" name="sample_id"/>
@@ -2243,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D9535-1238-AB48-B467-419735026371}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B34"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2406,293 +2413,290 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5">
-        <v>3411506</v>
+        <v>5755618</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="I3">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q3">
-        <v>49.954439999999998</v>
+        <v>48.498627856338103</v>
       </c>
       <c r="R3">
-        <v>14.175829999999999</v>
+        <v>-89.227383734950806</v>
+      </c>
+      <c r="S3" t="s">
+        <v>415</v>
+      </c>
+      <c r="T3" t="s">
+        <v>414</v>
       </c>
       <c r="U3" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="V3" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5">
-        <v>3411507</v>
+        <v>5755619</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H4">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="I4">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O4" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q4">
-        <v>49.954439999999998</v>
+        <v>48.498627856338103</v>
       </c>
       <c r="R4">
-        <v>14.175829999999999</v>
+        <v>-89.227383734950806</v>
+      </c>
+      <c r="S4" t="s">
+        <v>415</v>
+      </c>
+      <c r="T4" t="s">
+        <v>414</v>
       </c>
       <c r="U4" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="V4" t="s">
-        <v>17</v>
+        <v>413</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5">
-        <v>3411508</v>
+        <v>5755620</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H5">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="I5">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O5" t="s">
-        <v>318</v>
-      </c>
-      <c r="P5" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="Q5">
-        <v>50.693460000000002</v>
+        <v>45.003125911591702</v>
       </c>
       <c r="R5">
-        <v>15.84652</v>
+        <v>-63.830206168139703</v>
       </c>
       <c r="U5" t="s">
-        <v>405</v>
-      </c>
-      <c r="V5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>400</v>
+        <v>307</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5">
-        <v>3411509</v>
+        <v>5755621</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="I6">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O6" t="s">
-        <v>318</v>
-      </c>
-      <c r="P6" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="Q6">
-        <v>50.693460000000002</v>
+        <v>45.003125911591702</v>
       </c>
       <c r="R6">
-        <v>15.84652</v>
+        <v>-63.830206168139703</v>
       </c>
       <c r="U6" t="s">
-        <v>405</v>
-      </c>
-      <c r="V6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5">
-        <v>5755618</v>
+        <v>5755622</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H7">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I7">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
@@ -2707,57 +2711,42 @@
         <v>291</v>
       </c>
       <c r="N7" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="O7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P7" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
       <c r="Q7">
-        <v>48.498627856338103</v>
+        <v>46.011941999999998</v>
       </c>
       <c r="R7">
-        <v>-89.227383734950806</v>
-      </c>
-      <c r="S7" t="s">
-        <v>415</v>
-      </c>
-      <c r="T7" t="s">
-        <v>414</v>
+        <v>-62.618592999999997</v>
       </c>
       <c r="U7" t="s">
-        <v>321</v>
-      </c>
-      <c r="V7" t="s">
-        <v>412</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5">
-        <v>5755619</v>
+        <v>5755623</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H8">
         <v>2015</v>
@@ -2783,58 +2772,43 @@
       <c r="O8" t="s">
         <v>320</v>
       </c>
-      <c r="P8" t="s">
-        <v>406</v>
-      </c>
       <c r="Q8">
         <v>48.498627856338103</v>
       </c>
       <c r="R8">
         <v>-89.227383734950806</v>
       </c>
-      <c r="S8" t="s">
-        <v>415</v>
-      </c>
-      <c r="T8" t="s">
-        <v>414</v>
-      </c>
       <c r="U8" t="s">
         <v>321</v>
       </c>
-      <c r="V8" t="s">
-        <v>413</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5">
-        <v>5755620</v>
+        <v>5755624</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="I9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -2849,51 +2823,48 @@
         <v>291</v>
       </c>
       <c r="N9" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="O9" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q9">
-        <v>45.003125911591702</v>
+        <v>45.913153999999999</v>
       </c>
       <c r="R9">
-        <v>-63.830206168139703</v>
+        <v>-64.671137999999999</v>
       </c>
       <c r="U9" t="s">
         <v>307</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D10" s="5">
-        <v>5755621</v>
+        <v>5755625</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H10">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I10">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J10" t="s">
         <v>42</v>
@@ -2908,16 +2879,16 @@
         <v>291</v>
       </c>
       <c r="N10" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="O10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q10">
-        <v>45.003125911591702</v>
+        <v>45.8172</v>
       </c>
       <c r="R10">
-        <v>-63.830206168139703</v>
+        <v>-65.610500000000002</v>
       </c>
       <c r="U10" t="s">
         <v>307</v>
@@ -2925,25 +2896,25 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5">
-        <v>5755622</v>
+        <v>5755626</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
         <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H11">
         <v>2013</v>
@@ -2964,16 +2935,16 @@
         <v>291</v>
       </c>
       <c r="N11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q11">
-        <v>46.011941999999998</v>
+        <v>45.8172</v>
       </c>
       <c r="R11">
-        <v>-62.618592999999997</v>
+        <v>-65.610500000000002</v>
       </c>
       <c r="U11" t="s">
         <v>307</v>
@@ -2981,31 +2952,31 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D12" s="5">
-        <v>5755623</v>
+        <v>5755627</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H12">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="I12">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
@@ -3020,48 +2991,48 @@
         <v>291</v>
       </c>
       <c r="N12" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="O12" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="Q12">
-        <v>48.498627856338103</v>
+        <v>45.913153999999999</v>
       </c>
       <c r="R12">
-        <v>-89.227383734950806</v>
+        <v>-64.671137999999999</v>
       </c>
       <c r="U12" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D13" s="5">
-        <v>5755624</v>
+        <v>5755628</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H13">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="I13">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
@@ -3079,13 +3050,13 @@
         <v>292</v>
       </c>
       <c r="O13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13">
-        <v>45.913153999999999</v>
+        <v>45.615960000000001</v>
       </c>
       <c r="R13">
-        <v>-64.671137999999999</v>
+        <v>-65.439909999999998</v>
       </c>
       <c r="U13" t="s">
         <v>307</v>
@@ -3093,31 +3064,31 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5">
-        <v>5755625</v>
+        <v>5755630</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
@@ -3135,13 +3106,13 @@
         <v>292</v>
       </c>
       <c r="O14" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q14">
-        <v>45.8172</v>
+        <v>45.93694</v>
       </c>
       <c r="R14">
-        <v>-65.610500000000002</v>
+        <v>-64.476939999999999</v>
       </c>
       <c r="U14" t="s">
         <v>307</v>
@@ -3149,25 +3120,25 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5">
-        <v>5755626</v>
+        <v>5755631</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H15">
         <v>2013</v>
@@ -3191,13 +3162,13 @@
         <v>292</v>
       </c>
       <c r="O15" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="Q15">
-        <v>45.8172</v>
+        <v>45.615960000000001</v>
       </c>
       <c r="R15">
-        <v>-65.610500000000002</v>
+        <v>-65.439909999999998</v>
       </c>
       <c r="U15" t="s">
         <v>307</v>
@@ -3205,31 +3176,31 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D16" s="5">
-        <v>5755627</v>
+        <v>5755632</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H16">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I16">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="J16" t="s">
         <v>42</v>
@@ -3247,13 +3218,13 @@
         <v>292</v>
       </c>
       <c r="O16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q16">
-        <v>45.913153999999999</v>
+        <v>45.615960000000001</v>
       </c>
       <c r="R16">
-        <v>-64.671137999999999</v>
+        <v>-65.439909999999998</v>
       </c>
       <c r="U16" t="s">
         <v>307</v>
@@ -3261,31 +3232,31 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D17" s="5">
-        <v>5755628</v>
+        <v>5755633</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H17">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I17">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
@@ -3303,13 +3274,13 @@
         <v>292</v>
       </c>
       <c r="O17" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="Q17">
-        <v>45.615960000000001</v>
+        <v>45.8172</v>
       </c>
       <c r="R17">
-        <v>-65.439909999999998</v>
+        <v>-65.610500000000002</v>
       </c>
       <c r="U17" t="s">
         <v>307</v>
@@ -3317,31 +3288,31 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5">
-        <v>5755629</v>
+        <v>5755634</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H18">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I18">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
@@ -3350,22 +3321,22 @@
         <v>43</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N18" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="O18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q18">
-        <v>50.788476564399403</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R18">
-        <v>10.740499703414899</v>
+        <v>-74.098548155198898</v>
       </c>
       <c r="U18" t="s">
         <v>325</v>
@@ -3373,31 +3344,31 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D19" s="5">
-        <v>5755630</v>
+        <v>5757331</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="H19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
@@ -3415,13 +3386,13 @@
         <v>292</v>
       </c>
       <c r="O19" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q19">
-        <v>45.93694</v>
+        <v>45.913153999999999</v>
       </c>
       <c r="R19">
-        <v>-64.476939999999999</v>
+        <v>-64.671137999999999</v>
       </c>
       <c r="U19" t="s">
         <v>307</v>
@@ -3429,34 +3400,34 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D20" s="5">
-        <v>5755631</v>
+        <v>7191697</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H20">
-        <v>2013</v>
-      </c>
-      <c r="I20">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="I20" s="1">
+        <v>41011</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
         <v>43</v>
@@ -3471,48 +3442,45 @@
         <v>292</v>
       </c>
       <c r="O20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q20">
-        <v>45.615960000000001</v>
+        <v>45.93694</v>
       </c>
       <c r="R20">
-        <v>-65.439909999999998</v>
-      </c>
-      <c r="U20" t="s">
-        <v>307</v>
+        <v>-64.476939999999999</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D21" s="5">
-        <v>5755632</v>
+        <v>7191698</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H21">
-        <v>2013</v>
-      </c>
-      <c r="I21">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="I21" s="1">
+        <v>41013</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s">
         <v>43</v>
@@ -3524,51 +3492,48 @@
         <v>291</v>
       </c>
       <c r="N21" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O21" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q21">
-        <v>45.615960000000001</v>
+        <v>46.011941999999998</v>
       </c>
       <c r="R21">
-        <v>-65.439909999999998</v>
-      </c>
-      <c r="U21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-62.618592999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D22" s="5">
-        <v>5755633</v>
+        <v>1952982</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
         <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H22">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="I22">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K22" t="s">
         <v>43</v>
@@ -3577,45 +3542,60 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N22" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="O22" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="Q22">
-        <v>45.8172</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R22">
-        <v>-65.610500000000002</v>
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S22" t="s">
+        <v>379</v>
+      </c>
+      <c r="T22" t="s">
+        <v>380</v>
       </c>
       <c r="U22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="V22" t="s">
+        <v>384</v>
+      </c>
+      <c r="W22" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>105</v>
+        <v>126</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D23" s="5">
-        <v>5755634</v>
+        <v>1955487</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H23">
         <v>2008</v>
@@ -3624,7 +3604,7 @@
         <v>2008</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -3636,51 +3616,66 @@
         <v>298</v>
       </c>
       <c r="N23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="O23" t="s">
-        <v>300</v>
+        <v>305</v>
+      </c>
+      <c r="P23" t="s">
+        <v>394</v>
       </c>
       <c r="Q23">
-        <v>41.844515371877698</v>
+        <v>43.835385505600499</v>
       </c>
       <c r="R23">
-        <v>-74.098548155198898</v>
+        <v>-92.283091749633499</v>
+      </c>
+      <c r="S23" t="s">
+        <v>379</v>
+      </c>
+      <c r="T23" t="s">
+        <v>380</v>
       </c>
       <c r="U23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="W23" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D24" s="5">
-        <v>5757331</v>
+        <v>1955239</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="H24">
-        <v>2012</v>
+        <v>1960</v>
       </c>
       <c r="I24">
-        <v>2012</v>
+        <v>1960</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s">
         <v>43</v>
@@ -3689,51 +3684,69 @@
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N24" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="O24" t="s">
-        <v>293</v>
+        <v>305</v>
+      </c>
+      <c r="P24" t="s">
+        <v>392</v>
       </c>
       <c r="Q24">
-        <v>45.913153999999999</v>
+        <v>45.876656556660201</v>
       </c>
       <c r="R24">
-        <v>-64.671137999999999</v>
+        <v>-89.628365849641099</v>
+      </c>
+      <c r="S24" t="s">
+        <v>379</v>
+      </c>
+      <c r="T24" t="s">
+        <v>380</v>
       </c>
       <c r="U24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
+        <v>135</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D25" s="5">
-        <v>7191697</v>
+        <v>1955482</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="H25">
-        <v>2012</v>
-      </c>
-      <c r="I25" s="1">
-        <v>41011</v>
+        <v>2002</v>
+      </c>
+      <c r="I25">
+        <v>2002</v>
       </c>
       <c r="J25" t="s">
         <v>117</v>
@@ -3748,45 +3761,63 @@
         <v>291</v>
       </c>
       <c r="N25" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="O25" t="s">
-        <v>297</v>
+        <v>305</v>
+      </c>
+      <c r="P25" t="s">
+        <v>391</v>
       </c>
       <c r="Q25">
-        <v>45.93694</v>
+        <v>53.933300000000003</v>
       </c>
       <c r="R25">
-        <v>-64.476939999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-116.5765</v>
+      </c>
+      <c r="S25" t="s">
+        <v>379</v>
+      </c>
+      <c r="T25" t="s">
+        <v>380</v>
+      </c>
+      <c r="U25" t="s">
+        <v>378</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" t="s">
-        <v>118</v>
+        <v>139</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D26" s="5">
-        <v>7191698</v>
+        <v>1955483</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="H26">
-        <v>2012</v>
-      </c>
-      <c r="I26" s="1">
-        <v>41013</v>
+        <v>2008</v>
+      </c>
+      <c r="I26">
+        <v>2008</v>
       </c>
       <c r="J26" t="s">
         <v>117</v>
@@ -3798,42 +3829,60 @@
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N26" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="O26" t="s">
-        <v>296</v>
+        <v>305</v>
+      </c>
+      <c r="P26" t="s">
+        <v>394</v>
       </c>
       <c r="Q26">
-        <v>46.011941999999998</v>
+        <v>42.871989999999997</v>
       </c>
       <c r="R26">
-        <v>-62.618592999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+        <v>-73.226607000000001</v>
+      </c>
+      <c r="S26" t="s">
+        <v>379</v>
+      </c>
+      <c r="T26" t="s">
+        <v>380</v>
+      </c>
+      <c r="U26" t="s">
+        <v>378</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" t="s">
-        <v>122</v>
+        <v>143</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D27" s="5">
-        <v>1952982</v>
+        <v>1955484</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="H27">
         <v>2008</v>
@@ -3857,7 +3906,10 @@
         <v>299</v>
       </c>
       <c r="O27" t="s">
-        <v>328</v>
+        <v>305</v>
+      </c>
+      <c r="P27" t="s">
+        <v>394</v>
       </c>
       <c r="Q27">
         <v>41.844515371877698</v>
@@ -3874,37 +3926,34 @@
       <c r="U27" t="s">
         <v>378</v>
       </c>
-      <c r="V27" t="s">
-        <v>384</v>
+      <c r="V27" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="X27" s="2" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D28" s="5">
-        <v>1955487</v>
+        <v>1955485</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H28">
         <v>2008</v>
@@ -3913,7 +3962,7 @@
         <v>2008</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s">
         <v>43</v>
@@ -3925,19 +3974,19 @@
         <v>298</v>
       </c>
       <c r="N28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O28" t="s">
         <v>305</v>
       </c>
-      <c r="P28" t="s">
-        <v>394</v>
+      <c r="P28" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="Q28">
-        <v>43.835385505600499</v>
+        <v>45.876656556660201</v>
       </c>
       <c r="R28">
-        <v>-92.283091749633499</v>
+        <v>-89.628365849641099</v>
       </c>
       <c r="S28" t="s">
         <v>379</v>
@@ -3949,45 +3998,45 @@
         <v>378</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W28" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5">
-        <v>1955239</v>
+        <v>1955486</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
         <v>51</v>
       </c>
       <c r="G29" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="H29">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="I29">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s">
         <v>20</v>
@@ -3996,19 +4045,19 @@
         <v>298</v>
       </c>
       <c r="N29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s">
         <v>305</v>
       </c>
       <c r="P29" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q29">
-        <v>45.876656556660201</v>
+        <v>43.835385505600499</v>
       </c>
       <c r="R29">
-        <v>-89.628365849641099</v>
+        <v>-92.283091749633499</v>
       </c>
       <c r="S29" t="s">
         <v>379</v>
@@ -4020,119 +4069,116 @@
         <v>378</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="X29" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
       </c>
       <c r="D30" s="5">
-        <v>1955482</v>
+        <v>29259</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
         <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="H30">
-        <v>2002</v>
-      </c>
-      <c r="I30">
-        <v>2002</v>
+        <v>2009</v>
+      </c>
+      <c r="I30" s="1">
+        <v>40073</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>305</v>
-      </c>
-      <c r="P30" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="Q30">
-        <v>53.933300000000003</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R30">
-        <v>-116.5765</v>
+        <v>-74.098548155198898</v>
       </c>
       <c r="S30" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T30" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U30" t="s">
-        <v>378</v>
-      </c>
-      <c r="V30" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="V30" t="s">
+        <v>384</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
       </c>
       <c r="D31" s="5">
-        <v>1955483</v>
+        <v>29260</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F31" t="s">
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="H31">
-        <v>2008</v>
-      </c>
-      <c r="I31">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="I31" s="1">
+        <v>40073</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
@@ -4141,66 +4187,66 @@
         <v>298</v>
       </c>
       <c r="N31" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>305</v>
-      </c>
-      <c r="P31" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="Q31">
-        <v>42.871989999999997</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R31">
-        <v>-73.226607000000001</v>
+        <v>-74.098548155198898</v>
       </c>
       <c r="S31" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T31" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U31" t="s">
-        <v>378</v>
-      </c>
-      <c r="V31" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="V31" t="s">
+        <v>384</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
       </c>
       <c r="D32" s="5">
-        <v>1955484</v>
+        <v>31784</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="H32">
-        <v>2008</v>
-      </c>
-      <c r="I32">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="I32" s="1">
+        <v>40073</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="K32" t="s">
         <v>43</v>
@@ -4215,10 +4261,7 @@
         <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>305</v>
-      </c>
-      <c r="P32" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="Q32">
         <v>41.844515371877698</v>
@@ -4227,51 +4270,54 @@
         <v>-74.098548155198898</v>
       </c>
       <c r="S32" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T32" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U32" t="s">
-        <v>378</v>
-      </c>
-      <c r="V32" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="W32" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="V32" t="s">
+        <v>384</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
       </c>
       <c r="D33" s="5">
-        <v>1955485</v>
+        <v>107675</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="H33">
-        <v>2008</v>
-      </c>
-      <c r="I33">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="I33" s="1">
+        <v>40073</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="K33" t="s">
         <v>43</v>
@@ -4283,69 +4329,69 @@
         <v>298</v>
       </c>
       <c r="N33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>305</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>407</v>
+        <v>328</v>
       </c>
       <c r="Q33">
-        <v>45.876656556660201</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R33">
-        <v>-89.628365849641099</v>
+        <v>-74.098548155198898</v>
       </c>
       <c r="S33" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="T33" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U33" t="s">
-        <v>378</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="W33" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="V33" t="s">
+        <v>384</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>126</v>
+        <v>174</v>
+      </c>
+      <c r="B34" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
       </c>
       <c r="D34" s="5">
-        <v>1955486</v>
+        <v>6011469</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
         <v>51</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="H34">
-        <v>2008</v>
-      </c>
-      <c r="I34">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="I34" s="1">
+        <v>39897</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L34" t="s">
         <v>20</v>
@@ -4354,69 +4400,51 @@
         <v>298</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="O34" t="s">
-        <v>305</v>
-      </c>
-      <c r="P34" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="Q34">
-        <v>43.835385505600499</v>
+        <v>40.888610999999997</v>
       </c>
       <c r="R34">
-        <v>-92.283091749633499</v>
-      </c>
-      <c r="S34" t="s">
-        <v>379</v>
-      </c>
-      <c r="T34" t="s">
-        <v>380</v>
-      </c>
-      <c r="U34" t="s">
-        <v>378</v>
-      </c>
-      <c r="V34" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="W34" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <v>-77.386111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D35" s="5">
-        <v>29259</v>
+        <v>6011470</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="F35" t="s">
         <v>51</v>
       </c>
       <c r="G35" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="H35">
         <v>2009</v>
       </c>
       <c r="I35" s="1">
-        <v>40073</v>
+        <v>39990</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
@@ -4425,69 +4453,51 @@
         <v>298</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="O35" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q35">
-        <v>41.844515371877698</v>
+        <v>40.877385651285401</v>
       </c>
       <c r="R35">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S35" t="s">
-        <v>381</v>
-      </c>
-      <c r="T35" t="s">
-        <v>382</v>
-      </c>
-      <c r="U35" t="s">
-        <v>330</v>
-      </c>
-      <c r="V35" t="s">
-        <v>384</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X35" s="2" t="s">
-        <v>327</v>
+        <v>-74.968855407371393</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D36" s="5">
-        <v>29260</v>
+        <v>6011471</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
         <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="H36">
         <v>2009</v>
       </c>
       <c r="I36" s="1">
-        <v>40073</v>
+        <v>39843</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L36" t="s">
         <v>20</v>
@@ -4496,66 +4506,48 @@
         <v>298</v>
       </c>
       <c r="N36" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Q36">
-        <v>41.844515371877698</v>
+        <v>38.664935999999997</v>
       </c>
       <c r="R36">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S36" t="s">
-        <v>381</v>
-      </c>
-      <c r="T36" t="s">
-        <v>382</v>
-      </c>
-      <c r="U36" t="s">
-        <v>330</v>
-      </c>
-      <c r="V36" t="s">
-        <v>384</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X36" t="s">
-        <v>331</v>
+        <v>-79.430160999999998</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="D37" s="5">
-        <v>31784</v>
+        <v>6011472</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
         <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="H37">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I37" s="1">
-        <v>40073</v>
+        <v>40248</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K37" t="s">
         <v>43</v>
@@ -4564,69 +4556,51 @@
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N37" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="Q37">
-        <v>41.844515371877698</v>
+        <v>48.174337000000001</v>
       </c>
       <c r="R37">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S37" t="s">
-        <v>381</v>
-      </c>
-      <c r="T37" t="s">
-        <v>382</v>
-      </c>
-      <c r="U37" t="s">
-        <v>330</v>
-      </c>
-      <c r="V37" t="s">
-        <v>384</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X37" t="s">
-        <v>331</v>
+        <v>80.100126000000003</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D38" s="5">
-        <v>107675</v>
+        <v>6011473</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
         <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="H38">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I38" s="1">
-        <v>40073</v>
+        <v>40242</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s">
         <v>43</v>
@@ -4638,119 +4612,98 @@
         <v>298</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="Q38">
-        <v>41.844515371877698</v>
+        <v>36.555458999999999</v>
       </c>
       <c r="R38">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S38" t="s">
-        <v>381</v>
-      </c>
-      <c r="T38" t="s">
-        <v>382</v>
-      </c>
-      <c r="U38" t="s">
-        <v>330</v>
-      </c>
-      <c r="V38" t="s">
-        <v>384</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X38" t="s">
-        <v>331</v>
+        <v>-87.304068999999998</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="D39" s="5">
-        <v>6011467</v>
+        <v>6011474</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I39" s="1">
-        <v>39879</v>
+        <v>39525</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="K39" t="s">
         <v>43</v>
       </c>
       <c r="L39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="O39" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="Q39">
-        <v>50.788476564399403</v>
+        <v>42.871989999999997</v>
       </c>
       <c r="R39">
-        <v>10.740499703414899</v>
-      </c>
-      <c r="X39" t="s">
-        <v>26</v>
+        <v>-73.226607000000001</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="D40" s="5">
-        <v>6011468</v>
+        <v>6011475</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="H40">
         <v>2009</v>
       </c>
       <c r="I40" s="1">
-        <v>39904</v>
+        <v>39840</v>
       </c>
       <c r="J40" t="s">
         <v>130</v>
@@ -4759,54 +4712,51 @@
         <v>43</v>
       </c>
       <c r="L40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="Q40">
-        <v>47.083329999999997</v>
+        <v>41.745700999999997</v>
       </c>
       <c r="R40">
-        <v>8</v>
-      </c>
-      <c r="X40" t="s">
-        <v>26</v>
+        <v>-73.158473999999998</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D41" s="5">
-        <v>6011469</v>
+        <v>6011476</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="H41">
         <v>2009</v>
       </c>
       <c r="I41" s="1">
-        <v>39897</v>
+        <v>39875</v>
       </c>
       <c r="J41" t="s">
         <v>130</v>
@@ -4821,45 +4771,45 @@
         <v>298</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q41">
-        <v>40.888610999999997</v>
+        <v>37.322156999999997</v>
       </c>
       <c r="R41">
-        <v>-77.386111</v>
+        <v>-80.756189000000006</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D42" s="5">
-        <v>6011470</v>
+        <v>6011477</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="H42">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I42" s="1">
-        <v>39990</v>
+        <v>39528</v>
       </c>
       <c r="J42" t="s">
         <v>130</v>
@@ -4874,51 +4824,51 @@
         <v>298</v>
       </c>
       <c r="N42" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="Q42">
-        <v>40.877385651285401</v>
+        <v>42.592351000000001</v>
       </c>
       <c r="R42">
-        <v>-74.968855407371393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-73.226241999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="D43" s="5">
-        <v>6011471</v>
+        <v>3545532</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H43">
-        <v>2009</v>
-      </c>
-      <c r="I43" s="1">
-        <v>39843</v>
+        <v>2015</v>
+      </c>
+      <c r="I43">
+        <v>2015</v>
       </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K43" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
@@ -4927,98 +4877,116 @@
         <v>298</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="O43" t="s">
-        <v>344</v>
+        <v>311</v>
+      </c>
+      <c r="P43" t="s">
+        <v>407</v>
       </c>
       <c r="Q43">
-        <v>38.664935999999997</v>
+        <v>34.574328000000001</v>
       </c>
       <c r="R43">
-        <v>-79.430160999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-86.220834999999994</v>
+      </c>
+      <c r="W43" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="X43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="D44" s="5">
-        <v>6011472</v>
+        <v>3545533</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="H44">
-        <v>2010</v>
-      </c>
-      <c r="I44" s="1">
-        <v>40248</v>
+        <v>2016</v>
+      </c>
+      <c r="I44">
+        <v>2016</v>
       </c>
       <c r="J44" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N44" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O44" t="s">
-        <v>345</v>
+        <v>313</v>
+      </c>
+      <c r="P44" t="s">
+        <v>406</v>
       </c>
       <c r="Q44">
-        <v>48.174337000000001</v>
+        <v>47.550894599999999</v>
       </c>
       <c r="R44">
-        <v>80.100126000000003</v>
+        <v>-121.53941880000001</v>
+      </c>
+      <c r="W44" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="X44" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D45" s="5">
-        <v>6011473</v>
+        <v>6011478</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="H45">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I45" s="1">
-        <v>40242</v>
+        <v>39539</v>
       </c>
       <c r="J45" t="s">
         <v>130</v>
@@ -5033,48 +5001,48 @@
         <v>298</v>
       </c>
       <c r="N45" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O45" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="Q45">
-        <v>36.555458999999999</v>
+        <v>41.745700999999997</v>
       </c>
       <c r="R45">
-        <v>-87.304068999999998</v>
+        <v>-73.158473999999998</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D46" s="5">
-        <v>6011474</v>
+        <v>6011479</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
         <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="H46">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="I46" s="1">
-        <v>39525</v>
+        <v>40217</v>
       </c>
       <c r="J46" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s">
         <v>43</v>
@@ -5086,45 +5054,45 @@
         <v>298</v>
       </c>
       <c r="N46" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="O46" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q46">
-        <v>42.871989999999997</v>
+        <v>36.509321</v>
       </c>
       <c r="R46">
-        <v>-73.226607000000001</v>
+        <v>-82.328933000000006</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D47" s="5">
-        <v>6011475</v>
+        <v>6011480</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="H47">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I47" s="1">
-        <v>39840</v>
+        <v>40242</v>
       </c>
       <c r="J47" t="s">
         <v>130</v>
@@ -5139,48 +5107,51 @@
         <v>298</v>
       </c>
       <c r="N47" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="O47" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="Q47">
-        <v>41.745700999999997</v>
+        <v>39.69717</v>
       </c>
       <c r="R47">
-        <v>-73.158473999999998</v>
+        <v>-78.820670000000007</v>
+      </c>
+      <c r="X47" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D48" s="5">
-        <v>6011476</v>
+        <v>6011481</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="H48">
         <v>2009</v>
       </c>
       <c r="I48" s="1">
-        <v>39875</v>
+        <v>39882</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="K48" t="s">
         <v>43</v>
@@ -5192,45 +5163,45 @@
         <v>298</v>
       </c>
       <c r="N48" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
       <c r="O48" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q48">
-        <v>37.322156999999997</v>
+        <v>41.949971359391597</v>
       </c>
       <c r="R48">
-        <v>-80.756189000000006</v>
+        <v>-74.288489118822994</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="D49" s="5">
-        <v>6011477</v>
+        <v>6011482</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
         <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="H49">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="I49" s="1">
-        <v>39528</v>
+        <v>40205</v>
       </c>
       <c r="J49" t="s">
         <v>130</v>
@@ -5245,113 +5216,104 @@
         <v>298</v>
       </c>
       <c r="N49" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="O49" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q49">
-        <v>42.592351000000001</v>
+        <v>43.451169999999998</v>
       </c>
       <c r="R49">
-        <v>-73.226241999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>-72.942554999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="D50" s="5">
-        <v>3545532</v>
+        <v>6011483</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="F50" t="s">
         <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="H50">
-        <v>2015</v>
-      </c>
-      <c r="I50">
-        <v>2015</v>
+        <v>2010</v>
+      </c>
+      <c r="I50" s="1">
+        <v>40252</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L50" t="s">
         <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N50" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="O50" t="s">
-        <v>311</v>
-      </c>
-      <c r="P50" t="s">
-        <v>407</v>
+        <v>305</v>
       </c>
       <c r="Q50">
-        <v>34.574328000000001</v>
+        <v>48.174337000000001</v>
       </c>
       <c r="R50">
-        <v>-86.220834999999994</v>
-      </c>
-      <c r="W50" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="X50" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>80.100126000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="D51" s="5">
-        <v>3545533</v>
+        <v>6011484</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="H51">
-        <v>2016</v>
-      </c>
-      <c r="I51">
-        <v>2016</v>
+        <v>2010</v>
+      </c>
+      <c r="I51" s="1">
+        <v>40275</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L51" t="s">
         <v>20</v>
@@ -5360,54 +5322,45 @@
         <v>298</v>
       </c>
       <c r="N51" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="O51" t="s">
-        <v>313</v>
-      </c>
-      <c r="P51" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="Q51">
-        <v>47.550894599999999</v>
+        <v>36.465316000000001</v>
       </c>
       <c r="R51">
-        <v>-121.53941880000001</v>
-      </c>
-      <c r="W51" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="X51" t="s">
-        <v>411</v>
+        <v>-84.971273999999994</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="C52" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="D52" s="5">
-        <v>6011465</v>
+        <v>6011488</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="H52">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="I52" s="1">
-        <v>39901</v>
+        <v>41011</v>
       </c>
       <c r="J52" t="s">
         <v>130</v>
@@ -5416,57 +5369,54 @@
         <v>43</v>
       </c>
       <c r="L52" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="N52" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="O52" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q52">
-        <v>47.145499999999998</v>
+        <v>45.93694</v>
       </c>
       <c r="R52">
-        <v>17.622399999999999</v>
-      </c>
-      <c r="X52" t="s">
-        <v>26</v>
+        <v>-64.476939999999999</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="D53" s="5">
-        <v>6011478</v>
+        <v>6011489</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G53" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="H53">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="I53" s="1">
-        <v>39539</v>
+        <v>40987</v>
       </c>
       <c r="J53" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K53" t="s">
         <v>43</v>
@@ -5478,45 +5428,45 @@
         <v>298</v>
       </c>
       <c r="N53" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="O53" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="Q53">
-        <v>41.745700999999997</v>
+        <v>39.048609999999996</v>
       </c>
       <c r="R53">
-        <v>-73.158473999999998</v>
+        <v>-90.88167</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D54" s="5">
-        <v>6011479</v>
+        <v>6011490</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G54" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="H54">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I54" s="1">
-        <v>40217</v>
+        <v>40590</v>
       </c>
       <c r="J54" t="s">
         <v>130</v>
@@ -5531,45 +5481,45 @@
         <v>298</v>
       </c>
       <c r="N54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O54" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q54">
-        <v>36.509321</v>
+        <v>36.968234063873403</v>
       </c>
       <c r="R54">
-        <v>-82.328933000000006</v>
+        <v>-82.639469435652799</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D55" s="5">
-        <v>6011480</v>
+        <v>6011491</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="H55">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I55" s="1">
-        <v>40242</v>
+        <v>40583</v>
       </c>
       <c r="J55" t="s">
         <v>130</v>
@@ -5584,51 +5534,48 @@
         <v>298</v>
       </c>
       <c r="N55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q55">
-        <v>39.69717</v>
+        <v>36.555458999999999</v>
       </c>
       <c r="R55">
-        <v>-78.820670000000007</v>
-      </c>
-      <c r="X55" s="9" t="s">
-        <v>417</v>
+        <v>-87.304068999999998</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="D56" s="5">
-        <v>6011481</v>
+        <v>6011492</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="H56">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="I56" s="1">
-        <v>39882</v>
+        <v>40572</v>
       </c>
       <c r="J56" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="K56" t="s">
         <v>43</v>
@@ -5640,48 +5587,48 @@
         <v>298</v>
       </c>
       <c r="N56" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="O56" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="Q56">
-        <v>41.949971359391597</v>
+        <v>38.229909999999997</v>
       </c>
       <c r="R56">
-        <v>-74.288489118822994</v>
+        <v>-86.294910000000002</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="D57" s="5">
-        <v>6011482</v>
+        <v>6011493</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G57" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="H57">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I57" s="1">
-        <v>40205</v>
+        <v>40566</v>
       </c>
       <c r="J57" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="K57" t="s">
         <v>43</v>
@@ -5693,48 +5640,48 @@
         <v>298</v>
       </c>
       <c r="N57" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="O57" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q57">
-        <v>43.451169999999998</v>
+        <v>38.702026438267701</v>
       </c>
       <c r="R57">
-        <v>-72.942554999999999</v>
+        <v>-86.233603821942907</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="D58" s="5">
-        <v>6011483</v>
+        <v>6011494</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G58" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="H58">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="I58" s="1">
-        <v>40252</v>
+        <v>40969</v>
       </c>
       <c r="J58" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K58" t="s">
         <v>43</v>
@@ -5743,51 +5690,51 @@
         <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N58" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="O58" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="Q58">
-        <v>48.174337000000001</v>
+        <v>39.838700000000003</v>
       </c>
       <c r="R58">
-        <v>80.100126000000003</v>
+        <v>-75.563800000000001</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="D59" s="5">
-        <v>6011484</v>
+        <v>6011495</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G59" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="H59">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I59" s="1">
-        <v>40275</v>
+        <v>40889</v>
       </c>
       <c r="J59" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K59" t="s">
         <v>43</v>
@@ -5799,154 +5746,157 @@
         <v>298</v>
       </c>
       <c r="N59" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="O59" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q59">
-        <v>36.465316000000001</v>
+        <v>44.349651999999999</v>
       </c>
       <c r="R59">
-        <v>-84.971273999999994</v>
+        <v>-68.211070000000007</v>
+      </c>
+      <c r="X59" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="D60" s="5">
-        <v>6011486</v>
+        <v>11812088</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G60" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="H60">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I60">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s">
         <v>43</v>
       </c>
       <c r="L60" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="N60" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="O60" t="s">
-        <v>237</v>
+        <v>334</v>
       </c>
       <c r="Q60">
-        <v>46.823079999999997</v>
+        <v>43.468915000000003</v>
       </c>
       <c r="R60">
-        <v>102.503703</v>
+        <v>-79.911533000000006</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="D61" s="5">
-        <v>6011487</v>
+        <v>11812089</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F61" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="H61">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="I61">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K61" t="s">
         <v>43</v>
       </c>
       <c r="L61" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="N61" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="O61" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="Q61">
-        <v>46.823079999999997</v>
+        <v>44.992969000000002</v>
       </c>
       <c r="R61">
-        <v>102.503703</v>
+        <v>-64.167955000000006</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="B62" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="D62" s="5">
-        <v>6011488</v>
+        <v>11812090</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="H62">
         <v>2012</v>
       </c>
       <c r="I62" s="1">
-        <v>41011</v>
+        <v>40967</v>
       </c>
       <c r="J62" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s">
         <v>43</v>
@@ -5961,42 +5911,42 @@
         <v>292</v>
       </c>
       <c r="O62" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="Q62">
-        <v>45.93694</v>
+        <v>45.300289999999997</v>
       </c>
       <c r="R62">
-        <v>-64.476939999999999</v>
+        <v>-66.050550000000001</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="D63" s="5">
-        <v>6011489</v>
+        <v>11812091</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="F63" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="H63">
         <v>2012</v>
       </c>
-      <c r="I63" s="1">
-        <v>40987</v>
+      <c r="I63">
+        <v>2012</v>
       </c>
       <c r="J63" t="s">
         <v>117</v>
@@ -6008,393 +5958,444 @@
         <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N63" t="s">
-        <v>359</v>
+        <v>292</v>
       </c>
       <c r="O63" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="Q63">
-        <v>39.048609999999996</v>
+        <v>45.93694</v>
       </c>
       <c r="R63">
-        <v>-90.88167</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-64.476939999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="D64" s="5">
-        <v>6011490</v>
+        <v>3411506</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c r="H64">
-        <v>2011</v>
-      </c>
-      <c r="I64" s="1">
-        <v>40590</v>
+        <v>2010</v>
+      </c>
+      <c r="I64">
+        <v>2010</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K64" t="s">
-        <v>43</v>
-      </c>
-      <c r="L64" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L64" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M64" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N64" t="s">
-        <v>351</v>
+        <v>315</v>
       </c>
       <c r="O64" t="s">
-        <v>371</v>
+        <v>316</v>
+      </c>
+      <c r="P64" t="s">
+        <v>402</v>
       </c>
       <c r="Q64">
-        <v>36.968234063873403</v>
+        <v>49.954439999999998</v>
       </c>
       <c r="R64">
-        <v>-82.639469435652799</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+        <v>14.175829999999999</v>
+      </c>
+      <c r="U64" t="s">
+        <v>403</v>
+      </c>
+      <c r="V64" t="s">
+        <v>401</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D65" s="5">
-        <v>6011491</v>
+        <v>3411507</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="H65">
-        <v>2011</v>
-      </c>
-      <c r="I65" s="1">
-        <v>40583</v>
+        <v>2010</v>
+      </c>
+      <c r="I65">
+        <v>2010</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K65" t="s">
-        <v>43</v>
-      </c>
-      <c r="L65" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M65" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N65" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="O65" t="s">
-        <v>366</v>
+        <v>316</v>
+      </c>
+      <c r="P65" t="s">
+        <v>402</v>
       </c>
       <c r="Q65">
-        <v>36.555458999999999</v>
+        <v>49.954439999999998</v>
       </c>
       <c r="R65">
-        <v>-87.304068999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+        <v>14.175829999999999</v>
+      </c>
+      <c r="U65" t="s">
+        <v>403</v>
+      </c>
+      <c r="V65" t="s">
+        <v>17</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="D66" s="5">
-        <v>6011492</v>
+        <v>3411508</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>2011</v>
       </c>
-      <c r="I66" s="1">
-        <v>40572</v>
+      <c r="I66">
+        <v>2011</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K66" t="s">
-        <v>43</v>
-      </c>
-      <c r="L66" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L66" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M66" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N66" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="O66" t="s">
-        <v>370</v>
+        <v>318</v>
+      </c>
+      <c r="P66" t="s">
+        <v>402</v>
       </c>
       <c r="Q66">
-        <v>38.229909999999997</v>
+        <v>50.693460000000002</v>
       </c>
       <c r="R66">
-        <v>-86.294910000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+        <v>15.84652</v>
+      </c>
+      <c r="U66" t="s">
+        <v>405</v>
+      </c>
+      <c r="V66" t="s">
+        <v>24</v>
+      </c>
+      <c r="W66" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="D67" s="5">
-        <v>6011493</v>
+        <v>3411509</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="H67">
         <v>2011</v>
       </c>
-      <c r="I67" s="1">
-        <v>40566</v>
+      <c r="I67">
+        <v>2011</v>
       </c>
       <c r="J67" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="K67" t="s">
-        <v>43</v>
-      </c>
-      <c r="L67" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M67" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N67" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="O67" t="s">
-        <v>369</v>
+        <v>318</v>
+      </c>
+      <c r="P67" t="s">
+        <v>402</v>
       </c>
       <c r="Q67">
-        <v>38.702026438267701</v>
+        <v>50.693460000000002</v>
       </c>
       <c r="R67">
-        <v>-86.233603821942907</v>
+        <v>15.84652</v>
+      </c>
+      <c r="U67" t="s">
+        <v>405</v>
+      </c>
+      <c r="V67" t="s">
+        <v>30</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
       <c r="D68" s="5">
-        <v>6011494</v>
+        <v>5755629</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="H68">
-        <v>2012</v>
-      </c>
-      <c r="I68" s="1">
-        <v>40969</v>
+        <v>2009</v>
+      </c>
+      <c r="I68">
+        <v>2009</v>
       </c>
       <c r="J68" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K68" t="s">
         <v>43</v>
       </c>
-      <c r="L68" t="s">
-        <v>20</v>
+      <c r="L68" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M68" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="N68" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="O68" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="Q68">
-        <v>39.838700000000003</v>
+        <v>50.788476564399403</v>
       </c>
       <c r="R68">
-        <v>-75.563800000000001</v>
+        <v>10.740499703414899</v>
+      </c>
+      <c r="U68" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="D69" s="5">
-        <v>6011495</v>
+        <v>6011467</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
         <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="H69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I69" s="1">
-        <v>40889</v>
+        <v>39879</v>
       </c>
       <c r="J69" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s">
         <v>43</v>
       </c>
-      <c r="L69" t="s">
-        <v>20</v>
+      <c r="L69" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M69" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="N69" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="O69" t="s">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="Q69">
-        <v>44.349651999999999</v>
+        <v>50.788476564399403</v>
       </c>
       <c r="R69">
-        <v>-68.211070000000007</v>
-      </c>
-      <c r="X69" s="9" t="s">
-        <v>418</v>
+        <v>10.740499703414899</v>
+      </c>
+      <c r="X69" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="D70" s="5">
-        <v>6011496</v>
+        <v>6011468</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="F70" t="s">
         <v>51</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="H70">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I70" s="1">
-        <v>40577</v>
+        <v>39904</v>
       </c>
       <c r="J70" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s">
         <v>43</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M70" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="N70" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O70" t="s">
         <v>305</v>
       </c>
       <c r="Q70">
-        <v>50.45</v>
+        <v>47.083329999999997</v>
       </c>
       <c r="R70">
-        <v>30.5</v>
+        <v>8</v>
       </c>
       <c r="X70" t="s">
         <v>26</v>
@@ -6402,55 +6403,55 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D71" s="5">
-        <v>6011497</v>
+        <v>6011465</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
         <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>212</v>
       </c>
       <c r="H71">
         <v>2009</v>
       </c>
       <c r="I71" s="1">
-        <v>39884</v>
+        <v>39901</v>
       </c>
       <c r="J71" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K71" t="s">
         <v>43</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L71" s="10" t="s">
         <v>25</v>
       </c>
       <c r="M71" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="N71" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="O71" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="Q71">
-        <v>45.1</v>
+        <v>47.145499999999998</v>
       </c>
       <c r="R71">
-        <v>0.7</v>
+        <v>17.622399999999999</v>
       </c>
       <c r="X71" t="s">
         <v>26</v>
@@ -6458,31 +6459,31 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D72" s="5">
-        <v>11812088</v>
+        <v>6011496</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F72" t="s">
         <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H72">
-        <v>2014</v>
-      </c>
-      <c r="I72">
-        <v>2014</v>
+        <v>2011</v>
+      </c>
+      <c r="I72" s="1">
+        <v>40577</v>
       </c>
       <c r="J72" t="s">
         <v>117</v>
@@ -6490,52 +6491,55 @@
       <c r="K72" t="s">
         <v>43</v>
       </c>
-      <c r="L72" t="s">
-        <v>20</v>
+      <c r="L72" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M72" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="N72" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="O72" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="Q72">
-        <v>43.468915000000003</v>
+        <v>50.45</v>
       </c>
       <c r="R72">
-        <v>-79.911533000000006</v>
+        <v>30.5</v>
+      </c>
+      <c r="X72" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C73" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D73" s="5">
-        <v>11812089</v>
+        <v>6011497</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="H73">
-        <v>2013</v>
-      </c>
-      <c r="I73">
-        <v>2013</v>
+        <v>2009</v>
+      </c>
+      <c r="I73" s="1">
+        <v>39884</v>
       </c>
       <c r="J73" t="s">
         <v>117</v>
@@ -6543,145 +6547,148 @@
       <c r="K73" t="s">
         <v>43</v>
       </c>
-      <c r="L73" t="s">
-        <v>20</v>
+      <c r="L73" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M73" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="N73" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="O73" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="Q73">
-        <v>44.992969000000002</v>
+        <v>45.1</v>
       </c>
       <c r="R73">
-        <v>-64.167955000000006</v>
+        <v>0.7</v>
+      </c>
+      <c r="X73" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="D74" s="5">
-        <v>11812090</v>
+        <v>6011486</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="G74" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="H74">
-        <v>2012</v>
-      </c>
-      <c r="I74" s="1">
-        <v>40967</v>
+        <v>2016</v>
+      </c>
+      <c r="I74">
+        <v>2016</v>
       </c>
       <c r="J74" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K74" t="s">
         <v>43</v>
       </c>
-      <c r="L74" t="s">
-        <v>20</v>
+      <c r="L74" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="M74" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="N74" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O74" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="Q74">
-        <v>45.300289999999997</v>
+        <v>46.823079999999997</v>
       </c>
       <c r="R74">
-        <v>-66.050550000000001</v>
+        <v>102.503703</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>285</v>
+        <v>153</v>
       </c>
       <c r="D75" s="5">
-        <v>11812091</v>
+        <v>6011487</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G75" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="H75">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="I75">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="J75" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K75" t="s">
         <v>43</v>
       </c>
-      <c r="L75" t="s">
-        <v>20</v>
+      <c r="L75" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="M75" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="N75" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O75" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="Q75">
-        <v>45.93694</v>
+        <v>46.823079999999997</v>
       </c>
       <c r="R75">
-        <v>-64.476939999999999</v>
+        <v>102.503703</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W35" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
+    <hyperlink ref="W30" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
     <hyperlink ref="W3:W5" r:id="rId2" display="https://www.broadinstitute.org/fungal-genome-initiative/geomyces-destructans-genome-project" xr:uid="{E529C3A8-F634-424D-A336-C24E2974FB85}"/>
-    <hyperlink ref="W27" r:id="rId3" xr:uid="{FF3869F2-7E6B-564D-B22A-72301C0CD2D9}"/>
+    <hyperlink ref="W22" r:id="rId3" xr:uid="{FF3869F2-7E6B-564D-B22A-72301C0CD2D9}"/>
     <hyperlink ref="W7:W13" r:id="rId4" display="https://doi.org/10.1038/s41467-017-02441-z" xr:uid="{FE3B581E-1BDF-7147-B4C6-D87A8EF543CC}"/>
-    <hyperlink ref="W5" r:id="rId5" xr:uid="{0CBBFC48-3FDD-3848-9FEF-469016A3D5BA}"/>
-    <hyperlink ref="W29" r:id="rId6" xr:uid="{F8807A9D-D241-9243-BABA-D5FFA95D12B7}"/>
+    <hyperlink ref="W66" r:id="rId5" xr:uid="{0CBBFC48-3FDD-3848-9FEF-469016A3D5BA}"/>
+    <hyperlink ref="W24" r:id="rId6" xr:uid="{F8807A9D-D241-9243-BABA-D5FFA95D12B7}"/>
     <hyperlink ref="W2" r:id="rId7" xr:uid="{EC6F4932-8C94-F740-9969-1B4806139AE2}"/>
-    <hyperlink ref="W50" r:id="rId8" xr:uid="{CD5A617C-B212-8841-BF6B-C6AF934AFEB4}"/>
-    <hyperlink ref="W51" r:id="rId9" xr:uid="{E51461B0-4697-2E4B-923D-E3A487F55731}"/>
-    <hyperlink ref="X55" r:id="rId10" location="close --&gt; used to find  most clustered group of caves in the county" xr:uid="{1B33691D-2B9D-444D-B152-753EAD15C64B}"/>
-    <hyperlink ref="X69" r:id="rId11" xr:uid="{EC6D59AD-B4FE-6649-8CCF-430C3D187F22}"/>
+    <hyperlink ref="W43" r:id="rId8" xr:uid="{CD5A617C-B212-8841-BF6B-C6AF934AFEB4}"/>
+    <hyperlink ref="W44" r:id="rId9" xr:uid="{E51461B0-4697-2E4B-923D-E3A487F55731}"/>
+    <hyperlink ref="X47" r:id="rId10" location="close --&gt; used to find  most clustered group of caves in the county" xr:uid="{1B33691D-2B9D-444D-B152-753EAD15C64B}"/>
+    <hyperlink ref="X59" r:id="rId11" xr:uid="{EC6D59AD-B4FE-6649-8CCF-430C3D187F22}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/01_pd-samples/25_12-01_pd_samples-edited.xlsx
+++ b/data/01_pd-samples/25_12-01_pd_samples-edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caprinapugliese/Documents/School/Uconn/2024-26_Grad_School/Dagilis-lab/WNS-project/data/01_pd-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B159C8-9B06-A549-9BD1-56FB0FA12822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49053A-6670-5549-981D-F056B45D3398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
+    <workbookView xWindow="4760" yWindow="1120" windowWidth="31740" windowHeight="18680" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
   </bookViews>
   <sheets>
     <sheet name="25_10-16_pd_samples-edited" sheetId="1" r:id="rId1"/>
@@ -1899,7 +1899,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}" name="Table1" displayName="Table1" ref="A1:X75" totalsRowShown="0">
   <autoFilter ref="A1:X75" xr:uid="{90C14361-2949-B74A-BFF6-1CEFD0790204}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X75">
-    <sortCondition descending="1" ref="L1:L75"/>
+    <sortCondition ref="O1:O75"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{30EFF156-3D30-484A-8AD7-EA85D1CE06B4}" name="sample_id"/>
@@ -2250,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D9535-1238-AB48-B467-419735026371}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68:B75"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2415,105 +2415,96 @@
     </row>
     <row r="3" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D3" s="5">
-        <v>5755618</v>
+        <v>3545533</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="H3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I3">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P3" t="s">
         <v>406</v>
       </c>
       <c r="Q3">
-        <v>48.498627856338103</v>
+        <v>47.550894599999999</v>
       </c>
       <c r="R3">
-        <v>-89.227383734950806</v>
-      </c>
-      <c r="S3" t="s">
-        <v>415</v>
-      </c>
-      <c r="T3" t="s">
-        <v>414</v>
-      </c>
-      <c r="U3" t="s">
-        <v>321</v>
-      </c>
-      <c r="V3" t="s">
-        <v>412</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>-121.53941880000001</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="X3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5">
-        <v>5755619</v>
+        <v>6011480</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="H4">
-        <v>2015</v>
-      </c>
-      <c r="I4">
-        <v>2015</v>
+        <v>2010</v>
+      </c>
+      <c r="I4" s="1">
+        <v>40242</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
         <v>43</v>
@@ -2522,69 +2513,54 @@
         <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N4" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="O4" t="s">
-        <v>320</v>
-      </c>
-      <c r="P4" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
       <c r="Q4">
-        <v>48.498627856338103</v>
+        <v>39.69717</v>
       </c>
       <c r="R4">
-        <v>-89.227383734950806</v>
-      </c>
-      <c r="S4" t="s">
-        <v>415</v>
-      </c>
-      <c r="T4" t="s">
-        <v>414</v>
-      </c>
-      <c r="U4" t="s">
-        <v>321</v>
-      </c>
-      <c r="V4" t="s">
-        <v>413</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <v>-78.820670000000007</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="D5" s="5">
-        <v>5755620</v>
+        <v>6011474</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="H5">
-        <v>2013</v>
-      </c>
-      <c r="I5">
-        <v>2013</v>
+        <v>2008</v>
+      </c>
+      <c r="I5" s="1">
+        <v>39525</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
@@ -2593,57 +2569,51 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N5" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="O5" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="Q5">
-        <v>45.003125911591702</v>
+        <v>42.871989999999997</v>
       </c>
       <c r="R5">
-        <v>-63.830206168139703</v>
-      </c>
-      <c r="U5" t="s">
-        <v>307</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>326</v>
+        <v>-73.226607000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D6" s="5">
-        <v>5755621</v>
+        <v>6011477</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="H6">
-        <v>2013</v>
-      </c>
-      <c r="I6">
-        <v>2013</v>
+        <v>2008</v>
+      </c>
+      <c r="I6" s="1">
+        <v>39528</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
         <v>43</v>
@@ -2652,54 +2622,51 @@
         <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N6" t="s">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="O6" t="s">
-        <v>305</v>
+        <v>361</v>
       </c>
       <c r="Q6">
-        <v>45.003125911591702</v>
+        <v>42.592351000000001</v>
       </c>
       <c r="R6">
-        <v>-63.830206168139703</v>
-      </c>
-      <c r="U6" t="s">
-        <v>307</v>
+        <v>-73.226241999999999</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="D7" s="5">
-        <v>5755622</v>
+        <v>6011469</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="H7">
-        <v>2013</v>
-      </c>
-      <c r="I7">
-        <v>2013</v>
+        <v>2009</v>
+      </c>
+      <c r="I7" s="1">
+        <v>39897</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
         <v>43</v>
@@ -2708,54 +2675,51 @@
         <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="O7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="Q7">
-        <v>46.011941999999998</v>
+        <v>40.888610999999997</v>
       </c>
       <c r="R7">
-        <v>-62.618592999999997</v>
-      </c>
-      <c r="U7" t="s">
-        <v>307</v>
+        <v>-77.386111</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="D8" s="5">
-        <v>5755623</v>
+        <v>6011492</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="H8">
-        <v>2015</v>
-      </c>
-      <c r="I8">
-        <v>2015</v>
+        <v>2011</v>
+      </c>
+      <c r="I8" s="1">
+        <v>40572</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
         <v>43</v>
@@ -2764,51 +2728,48 @@
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N8" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="O8" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="Q8">
-        <v>48.498627856338103</v>
+        <v>38.229909999999997</v>
       </c>
       <c r="R8">
-        <v>-89.227383734950806</v>
-      </c>
-      <c r="U8" t="s">
-        <v>321</v>
+        <v>-86.294910000000002</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D9" s="5">
-        <v>5755624</v>
+        <v>5755630</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="H9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -2826,13 +2787,13 @@
         <v>292</v>
       </c>
       <c r="O9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q9">
-        <v>45.913153999999999</v>
+        <v>45.93694</v>
       </c>
       <c r="R9">
-        <v>-64.671137999999999</v>
+        <v>-64.476939999999999</v>
       </c>
       <c r="U9" t="s">
         <v>307</v>
@@ -2840,34 +2801,34 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="D10" s="5">
-        <v>5755625</v>
+        <v>7191697</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="H10">
         <v>2012</v>
       </c>
-      <c r="I10">
-        <v>2012</v>
+      <c r="I10" s="1">
+        <v>41011</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
         <v>43</v>
@@ -2882,48 +2843,45 @@
         <v>292</v>
       </c>
       <c r="O10" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q10">
-        <v>45.8172</v>
+        <v>45.93694</v>
       </c>
       <c r="R10">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="U10" t="s">
-        <v>307</v>
+        <v>-64.476939999999999</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="D11" s="5">
-        <v>5755626</v>
+        <v>6011488</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="H11">
-        <v>2013</v>
-      </c>
-      <c r="I11">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="I11" s="1">
+        <v>41011</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
         <v>43</v>
@@ -2938,39 +2896,36 @@
         <v>292</v>
       </c>
       <c r="O11" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q11">
-        <v>45.8172</v>
+        <v>45.93694</v>
       </c>
       <c r="R11">
-        <v>-65.610500000000002</v>
-      </c>
-      <c r="U11" t="s">
-        <v>307</v>
+        <v>-64.476939999999999</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="D12" s="5">
-        <v>5755627</v>
+        <v>11812091</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="H12">
         <v>2012</v>
@@ -2979,7 +2934,7 @@
         <v>2012</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
         <v>43</v>
@@ -2994,95 +2949,92 @@
         <v>292</v>
       </c>
       <c r="O12" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q12">
-        <v>45.913153999999999</v>
+        <v>45.93694</v>
       </c>
       <c r="R12">
-        <v>-64.671137999999999</v>
-      </c>
-      <c r="U12" t="s">
-        <v>307</v>
+        <v>-64.476939999999999</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="D13" s="5">
-        <v>5755628</v>
+        <v>6011497</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="H13">
-        <v>2012</v>
-      </c>
-      <c r="I13">
-        <v>2012</v>
+        <v>2009</v>
+      </c>
+      <c r="I13" s="1">
+        <v>39884</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
+      <c r="L13" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="N13" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
       <c r="O13" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="Q13">
-        <v>45.615960000000001</v>
+        <v>45.1</v>
       </c>
       <c r="R13">
-        <v>-65.439909999999998</v>
-      </c>
-      <c r="U13" t="s">
-        <v>307</v>
+        <v>0.7</v>
+      </c>
+      <c r="X13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="D14" s="5">
-        <v>5755630</v>
+        <v>11812089</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="H14">
         <v>2013</v>
@@ -3091,7 +3043,7 @@
         <v>2013</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -3103,51 +3055,48 @@
         <v>291</v>
       </c>
       <c r="N14" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="O14" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="Q14">
-        <v>45.93694</v>
+        <v>44.992969000000002</v>
       </c>
       <c r="R14">
-        <v>-64.476939999999999</v>
-      </c>
-      <c r="U14" t="s">
-        <v>307</v>
+        <v>-64.167955000000006</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D15" s="5">
-        <v>5755631</v>
+        <v>6011484</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="H15">
-        <v>2013</v>
-      </c>
-      <c r="I15">
-        <v>2013</v>
+        <v>2010</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40275</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
         <v>43</v>
@@ -3156,54 +3105,51 @@
         <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N15" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="O15" t="s">
-        <v>294</v>
+        <v>368</v>
       </c>
       <c r="Q15">
-        <v>45.615960000000001</v>
+        <v>36.465316000000001</v>
       </c>
       <c r="R15">
-        <v>-65.439909999999998</v>
-      </c>
-      <c r="U15" t="s">
-        <v>307</v>
+        <v>-84.971273999999994</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="D16" s="5">
-        <v>5755632</v>
+        <v>6011476</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
         <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="H16">
-        <v>2013</v>
-      </c>
-      <c r="I16">
-        <v>2013</v>
+        <v>2009</v>
+      </c>
+      <c r="I16" s="1">
+        <v>39875</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
         <v>43</v>
@@ -3212,51 +3158,48 @@
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N16" t="s">
-        <v>292</v>
+        <v>351</v>
       </c>
       <c r="O16" t="s">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="Q16">
-        <v>45.615960000000001</v>
+        <v>37.322156999999997</v>
       </c>
       <c r="R16">
-        <v>-65.439909999999998</v>
-      </c>
-      <c r="U16" t="s">
-        <v>307</v>
+        <v>-80.756189000000006</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5">
-        <v>5755633</v>
+        <v>5755625</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H17">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I17">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
@@ -3288,31 +3231,31 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D18" s="5">
-        <v>5755634</v>
+        <v>5755626</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H18">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="I18">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
@@ -3324,51 +3267,51 @@
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N18" t="s">
         <v>292</v>
       </c>
       <c r="O18" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q18">
-        <v>41.844515371877698</v>
+        <v>45.8172</v>
       </c>
       <c r="R18">
-        <v>-74.098548155198898</v>
+        <v>-65.610500000000002</v>
       </c>
       <c r="U18" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D19" s="5">
-        <v>5757331</v>
+        <v>5755633</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="I19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
@@ -3386,13 +3329,13 @@
         <v>292</v>
       </c>
       <c r="O19" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Q19">
-        <v>45.913153999999999</v>
+        <v>45.8172</v>
       </c>
       <c r="R19">
-        <v>-64.671137999999999</v>
+        <v>-65.610500000000002</v>
       </c>
       <c r="U19" t="s">
         <v>307</v>
@@ -3400,31 +3343,31 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="D20" s="5">
-        <v>7191697</v>
+        <v>6011495</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="H20">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I20" s="1">
-        <v>41011</v>
+        <v>40889</v>
       </c>
       <c r="J20" t="s">
         <v>117</v>
@@ -3436,48 +3379,51 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N20" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="O20" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="Q20">
-        <v>45.93694</v>
+        <v>44.349651999999999</v>
       </c>
       <c r="R20">
-        <v>-64.476939999999999</v>
+        <v>-68.211070000000007</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="D21" s="5">
-        <v>7191698</v>
+        <v>11812090</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="H21">
         <v>2012</v>
       </c>
       <c r="I21" s="1">
-        <v>41013</v>
+        <v>40967</v>
       </c>
       <c r="J21" t="s">
         <v>117</v>
@@ -3492,193 +3438,181 @@
         <v>291</v>
       </c>
       <c r="N21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O21" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="Q21">
-        <v>46.011941999999998</v>
+        <v>45.300289999999997</v>
       </c>
       <c r="R21">
-        <v>-62.618592999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+        <v>-66.050550000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D22" s="5">
-        <v>1952982</v>
+        <v>3411508</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="I22">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N22" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="O22" t="s">
-        <v>328</v>
+        <v>318</v>
+      </c>
+      <c r="P22" t="s">
+        <v>402</v>
       </c>
       <c r="Q22">
-        <v>41.844515371877698</v>
+        <v>50.693460000000002</v>
       </c>
       <c r="R22">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S22" t="s">
-        <v>379</v>
-      </c>
-      <c r="T22" t="s">
-        <v>380</v>
+        <v>15.84652</v>
       </c>
       <c r="U22" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="V22" t="s">
-        <v>384</v>
+        <v>24</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>126</v>
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="5">
-        <v>1955487</v>
+        <v>3411509</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="H23">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="I23">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="J23" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N23" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="O23" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="P23" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q23">
-        <v>43.835385505600499</v>
+        <v>50.693460000000002</v>
       </c>
       <c r="R23">
-        <v>-92.283091749633499</v>
-      </c>
-      <c r="S23" t="s">
-        <v>379</v>
-      </c>
-      <c r="T23" t="s">
-        <v>380</v>
+        <v>15.84652</v>
       </c>
       <c r="U23" t="s">
-        <v>378</v>
-      </c>
-      <c r="V23" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="W23" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="V23" t="s">
+        <v>30</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
       </c>
       <c r="D24" s="5">
-        <v>1955239</v>
+        <v>3545532</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="H24">
-        <v>1960</v>
+        <v>2015</v>
       </c>
       <c r="I24">
-        <v>1960</v>
+        <v>2015</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
@@ -3687,69 +3621,57 @@
         <v>298</v>
       </c>
       <c r="N24" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="O24" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P24" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="Q24">
-        <v>45.876656556660201</v>
+        <v>34.574328000000001</v>
       </c>
       <c r="R24">
-        <v>-89.628365849641099</v>
-      </c>
-      <c r="S24" t="s">
-        <v>379</v>
-      </c>
-      <c r="T24" t="s">
-        <v>380</v>
-      </c>
-      <c r="U24" t="s">
-        <v>378</v>
-      </c>
-      <c r="V24" s="7" t="s">
-        <v>390</v>
+        <v>-86.220834999999994</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="X24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>135</v>
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
       </c>
       <c r="D25" s="5">
-        <v>1955482</v>
+        <v>6011472</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="H25">
-        <v>2002</v>
-      </c>
-      <c r="I25">
-        <v>2002</v>
+        <v>2010</v>
+      </c>
+      <c r="I25" s="1">
+        <v>40248</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
         <v>43</v>
@@ -3761,63 +3683,45 @@
         <v>291</v>
       </c>
       <c r="N25" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="O25" t="s">
-        <v>305</v>
-      </c>
-      <c r="P25" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="Q25">
-        <v>53.933300000000003</v>
+        <v>48.174337000000001</v>
       </c>
       <c r="R25">
-        <v>-116.5765</v>
-      </c>
-      <c r="S25" t="s">
-        <v>379</v>
-      </c>
-      <c r="T25" t="s">
-        <v>380</v>
-      </c>
-      <c r="U25" t="s">
-        <v>378</v>
-      </c>
-      <c r="V25" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="W25" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>80.100126000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
       </c>
       <c r="D26" s="5">
-        <v>1955483</v>
+        <v>6011489</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>233</v>
       </c>
       <c r="H26">
-        <v>2008</v>
-      </c>
-      <c r="I26">
-        <v>2008</v>
+        <v>2012</v>
+      </c>
+      <c r="I26" s="1">
+        <v>40987</v>
       </c>
       <c r="J26" t="s">
         <v>117</v>
@@ -3832,66 +3736,48 @@
         <v>298</v>
       </c>
       <c r="N26" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="O26" t="s">
-        <v>305</v>
-      </c>
-      <c r="P26" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="Q26">
-        <v>42.871989999999997</v>
+        <v>39.048609999999996</v>
       </c>
       <c r="R26">
-        <v>-73.226607000000001</v>
-      </c>
-      <c r="S26" t="s">
-        <v>379</v>
-      </c>
-      <c r="T26" t="s">
-        <v>380</v>
-      </c>
-      <c r="U26" t="s">
-        <v>378</v>
-      </c>
-      <c r="V26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="W26" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>-90.88167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>143</v>
+        <v>192</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
       </c>
       <c r="D27" s="5">
-        <v>1955484</v>
+        <v>6011475</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
         <v>51</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="H27">
-        <v>2008</v>
-      </c>
-      <c r="I27">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="I27" s="1">
+        <v>39840</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
         <v>43</v>
@@ -3903,66 +3789,48 @@
         <v>298</v>
       </c>
       <c r="N27" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="O27" t="s">
-        <v>305</v>
-      </c>
-      <c r="P27" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="Q27">
-        <v>41.844515371877698</v>
+        <v>41.745700999999997</v>
       </c>
       <c r="R27">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S27" t="s">
-        <v>379</v>
-      </c>
-      <c r="T27" t="s">
-        <v>380</v>
-      </c>
-      <c r="U27" t="s">
-        <v>378</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="W27" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>-73.158473999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>147</v>
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
       </c>
       <c r="D28" s="5">
-        <v>1955485</v>
+        <v>6011478</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="F28" t="s">
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="H28">
         <v>2008</v>
       </c>
-      <c r="I28">
-        <v>2008</v>
+      <c r="I28" s="1">
+        <v>39539</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s">
         <v>43</v>
@@ -3974,63 +3842,45 @@
         <v>298</v>
       </c>
       <c r="N28" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="O28" t="s">
-        <v>305</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="Q28">
-        <v>45.876656556660201</v>
+        <v>41.745700999999997</v>
       </c>
       <c r="R28">
-        <v>-89.628365849641099</v>
-      </c>
-      <c r="S28" t="s">
-        <v>379</v>
-      </c>
-      <c r="T28" t="s">
-        <v>380</v>
-      </c>
-      <c r="U28" t="s">
-        <v>378</v>
-      </c>
-      <c r="V28" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="W28" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>-73.158473999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
       </c>
       <c r="D29" s="5">
-        <v>1955486</v>
+        <v>3411506</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="I29">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
@@ -4038,215 +3888,188 @@
       <c r="K29" t="s">
         <v>19</v>
       </c>
-      <c r="L29" t="s">
-        <v>20</v>
+      <c r="L29" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N29" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="O29" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="P29" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q29">
-        <v>43.835385505600499</v>
+        <v>49.954439999999998</v>
       </c>
       <c r="R29">
-        <v>-92.283091749633499</v>
-      </c>
-      <c r="S29" t="s">
-        <v>379</v>
-      </c>
-      <c r="T29" t="s">
-        <v>380</v>
+        <v>14.175829999999999</v>
       </c>
       <c r="U29" t="s">
-        <v>378</v>
-      </c>
-      <c r="V29" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="W29" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="34" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="V29" t="s">
+        <v>401</v>
+      </c>
+      <c r="W29" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>27</v>
       </c>
       <c r="D30" s="5">
-        <v>29259</v>
+        <v>3411507</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>2009</v>
-      </c>
-      <c r="I30" s="1">
-        <v>40073</v>
+        <v>2010</v>
+      </c>
+      <c r="I30">
+        <v>2010</v>
       </c>
       <c r="J30" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
       </c>
-      <c r="L30" t="s">
-        <v>20</v>
+      <c r="L30" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="N30" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="O30" t="s">
-        <v>328</v>
+        <v>316</v>
+      </c>
+      <c r="P30" t="s">
+        <v>402</v>
       </c>
       <c r="Q30">
-        <v>41.844515371877698</v>
+        <v>49.954439999999998</v>
       </c>
       <c r="R30">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S30" t="s">
-        <v>381</v>
-      </c>
-      <c r="T30" t="s">
-        <v>382</v>
+        <v>14.175829999999999</v>
       </c>
       <c r="U30" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="V30" t="s">
-        <v>384</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X30" s="2" t="s">
-        <v>327</v>
+        <v>17</v>
+      </c>
+      <c r="W30" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="D31" s="5">
-        <v>29260</v>
+        <v>5755628</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>51</v>
       </c>
       <c r="G31" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="H31">
-        <v>2009</v>
-      </c>
-      <c r="I31" s="1">
-        <v>40073</v>
+        <v>2012</v>
+      </c>
+      <c r="I31">
+        <v>2012</v>
       </c>
       <c r="J31" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L31" t="s">
         <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N31" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="Q31">
-        <v>41.844515371877698</v>
+        <v>45.615960000000001</v>
       </c>
       <c r="R31">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S31" t="s">
-        <v>381</v>
-      </c>
-      <c r="T31" t="s">
-        <v>382</v>
+        <v>-65.439909999999998</v>
       </c>
       <c r="U31" t="s">
-        <v>330</v>
-      </c>
-      <c r="V31" t="s">
-        <v>384</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X31" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="D32" s="5">
-        <v>31784</v>
+        <v>5755631</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
         <v>51</v>
       </c>
       <c r="G32" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="H32">
-        <v>2009</v>
-      </c>
-      <c r="I32" s="1">
-        <v>40073</v>
+        <v>2013</v>
+      </c>
+      <c r="I32">
+        <v>2013</v>
       </c>
       <c r="J32" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="K32" t="s">
         <v>43</v>
@@ -4255,69 +4078,54 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="Q32">
-        <v>41.844515371877698</v>
+        <v>45.615960000000001</v>
       </c>
       <c r="R32">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S32" t="s">
-        <v>381</v>
-      </c>
-      <c r="T32" t="s">
-        <v>382</v>
+        <v>-65.439909999999998</v>
       </c>
       <c r="U32" t="s">
-        <v>330</v>
-      </c>
-      <c r="V32" t="s">
-        <v>384</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X32" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="D33" s="5">
-        <v>107675</v>
+        <v>5755632</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="F33" t="s">
         <v>51</v>
       </c>
       <c r="G33" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="H33">
-        <v>2009</v>
-      </c>
-      <c r="I33" s="1">
-        <v>40073</v>
+        <v>2013</v>
+      </c>
+      <c r="I33">
+        <v>2013</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="K33" t="s">
         <v>43</v>
@@ -4326,172 +4134,157 @@
         <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N33" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="Q33">
-        <v>41.844515371877698</v>
+        <v>45.615960000000001</v>
       </c>
       <c r="R33">
-        <v>-74.098548155198898</v>
-      </c>
-      <c r="S33" t="s">
-        <v>381</v>
-      </c>
-      <c r="T33" t="s">
-        <v>382</v>
+        <v>-65.439909999999998</v>
       </c>
       <c r="U33" t="s">
-        <v>330</v>
-      </c>
-      <c r="V33" t="s">
-        <v>384</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="X33" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D34" s="5">
-        <v>6011469</v>
+        <v>6011486</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="H34">
-        <v>2009</v>
-      </c>
-      <c r="I34" s="1">
-        <v>39897</v>
+        <v>2016</v>
+      </c>
+      <c r="I34">
+        <v>2016</v>
       </c>
       <c r="J34" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
         <v>43</v>
       </c>
-      <c r="L34" t="s">
-        <v>20</v>
+      <c r="L34" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="M34" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
       <c r="Q34">
-        <v>40.888610999999997</v>
+        <v>46.823079999999997</v>
       </c>
       <c r="R34">
-        <v>-77.386111</v>
+        <v>102.503703</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D35" s="5">
-        <v>6011470</v>
+        <v>6011487</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G35" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="H35">
-        <v>2009</v>
-      </c>
-      <c r="I35" s="1">
-        <v>39990</v>
+        <v>2016</v>
+      </c>
+      <c r="I35">
+        <v>2016</v>
       </c>
       <c r="J35" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K35" t="s">
         <v>43</v>
       </c>
-      <c r="L35" t="s">
-        <v>20</v>
+      <c r="L35" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="M35" t="s">
-        <v>298</v>
+        <v>237</v>
       </c>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="O35" t="s">
-        <v>342</v>
+        <v>237</v>
       </c>
       <c r="Q35">
-        <v>40.877385651285401</v>
+        <v>46.823079999999997</v>
       </c>
       <c r="R35">
-        <v>-74.968855407371393</v>
+        <v>102.503703</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D36" s="5">
-        <v>6011471</v>
+        <v>6011473</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
         <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H36">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I36" s="1">
-        <v>39843</v>
+        <v>40242</v>
       </c>
       <c r="J36" t="s">
         <v>130</v>
@@ -4506,45 +4299,45 @@
         <v>298</v>
       </c>
       <c r="N36" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="O36" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="Q36">
-        <v>38.664935999999997</v>
+        <v>36.555458999999999</v>
       </c>
       <c r="R36">
-        <v>-79.430160999999998</v>
+        <v>-87.304068999999998</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D37" s="5">
-        <v>6011472</v>
+        <v>6011491</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="H37">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="I37" s="1">
-        <v>40248</v>
+        <v>40583</v>
       </c>
       <c r="J37" t="s">
         <v>130</v>
@@ -4556,51 +4349,51 @@
         <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="O37" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="Q37">
-        <v>48.174337000000001</v>
+        <v>36.555458999999999</v>
       </c>
       <c r="R37">
-        <v>80.100126000000003</v>
+        <v>-87.304068999999998</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D38" s="5">
-        <v>6011473</v>
+        <v>7191698</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
         <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
       <c r="H38">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="I38" s="1">
-        <v>40242</v>
+        <v>41013</v>
       </c>
       <c r="J38" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K38" t="s">
         <v>43</v>
@@ -4609,51 +4402,51 @@
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N38" t="s">
-        <v>354</v>
+        <v>295</v>
       </c>
       <c r="O38" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="Q38">
-        <v>36.555458999999999</v>
+        <v>46.011941999999998</v>
       </c>
       <c r="R38">
-        <v>-87.304068999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-62.618592999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="D39" s="5">
-        <v>6011474</v>
+        <v>5755620</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
         <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="H39">
-        <v>2008</v>
-      </c>
-      <c r="I39" s="1">
-        <v>39525</v>
+        <v>2013</v>
+      </c>
+      <c r="I39">
+        <v>2013</v>
       </c>
       <c r="J39" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="K39" t="s">
         <v>43</v>
@@ -4662,51 +4455,57 @@
         <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N39" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="O39" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="Q39">
-        <v>42.871989999999997</v>
+        <v>45.003125911591702</v>
       </c>
       <c r="R39">
-        <v>-73.226607000000001</v>
+        <v>-63.830206168139703</v>
+      </c>
+      <c r="U39" t="s">
+        <v>307</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="D40" s="5">
-        <v>6011475</v>
+        <v>5755621</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
         <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="H40">
-        <v>2009</v>
-      </c>
-      <c r="I40" s="1">
-        <v>39840</v>
+        <v>2013</v>
+      </c>
+      <c r="I40">
+        <v>2013</v>
       </c>
       <c r="J40" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K40" t="s">
         <v>43</v>
@@ -4715,51 +4514,54 @@
         <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N40" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="Q40">
-        <v>41.745700999999997</v>
+        <v>45.003125911591702</v>
       </c>
       <c r="R40">
-        <v>-73.158473999999998</v>
+        <v>-63.830206168139703</v>
+      </c>
+      <c r="U40" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>197</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="D41" s="5">
-        <v>6011476</v>
+        <v>5755622</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>198</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
       </c>
       <c r="G41" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="H41">
-        <v>2009</v>
-      </c>
-      <c r="I41" s="1">
-        <v>39875</v>
+        <v>2013</v>
+      </c>
+      <c r="I41">
+        <v>2013</v>
       </c>
       <c r="J41" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K41" t="s">
         <v>43</v>
@@ -4768,48 +4570,51 @@
         <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="O41" t="s">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="Q41">
-        <v>37.322156999999997</v>
+        <v>46.011941999999998</v>
       </c>
       <c r="R41">
-        <v>-80.756189000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-62.618592999999997</v>
+      </c>
+      <c r="U41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" t="s">
-        <v>199</v>
+        <v>126</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D42" s="5">
-        <v>6011477</v>
+        <v>1955487</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="H42">
         <v>2008</v>
       </c>
-      <c r="I42" s="1">
-        <v>39528</v>
+      <c r="I42">
+        <v>2008</v>
       </c>
       <c r="J42" t="s">
         <v>130</v>
@@ -4824,51 +4629,69 @@
         <v>298</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="O42" t="s">
-        <v>361</v>
+        <v>305</v>
+      </c>
+      <c r="P42" t="s">
+        <v>394</v>
       </c>
       <c r="Q42">
-        <v>42.592351000000001</v>
+        <v>43.835385505600499</v>
       </c>
       <c r="R42">
-        <v>-73.226241999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>-92.283091749633499</v>
+      </c>
+      <c r="S42" t="s">
+        <v>379</v>
+      </c>
+      <c r="T42" t="s">
+        <v>380</v>
+      </c>
+      <c r="U42" t="s">
+        <v>378</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="W42" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" t="s">
-        <v>41</v>
+        <v>131</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D43" s="5">
-        <v>3545532</v>
+        <v>1955239</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="H43">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="I43">
-        <v>2015</v>
+        <v>1960</v>
       </c>
       <c r="J43" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K43" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L43" t="s">
         <v>20</v>
@@ -4877,119 +4700,140 @@
         <v>298</v>
       </c>
       <c r="N43" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="O43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P43" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="Q43">
-        <v>34.574328000000001</v>
+        <v>45.876656556660201</v>
       </c>
       <c r="R43">
-        <v>-86.220834999999994</v>
+        <v>-89.628365849641099</v>
+      </c>
+      <c r="S43" t="s">
+        <v>379</v>
+      </c>
+      <c r="T43" t="s">
+        <v>380</v>
+      </c>
+      <c r="U43" t="s">
+        <v>378</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="W43" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="X43" t="s">
-        <v>410</v>
+        <v>386</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" t="s">
-        <v>47</v>
+        <v>135</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="D44" s="5">
-        <v>3545533</v>
+        <v>1955482</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="H44">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="I44">
-        <v>2016</v>
+        <v>2002</v>
       </c>
       <c r="J44" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L44" t="s">
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N44" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="O44" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="P44" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Q44">
-        <v>47.550894599999999</v>
+        <v>53.933300000000003</v>
       </c>
       <c r="R44">
-        <v>-121.53941880000001</v>
+        <v>-116.5765</v>
+      </c>
+      <c r="S44" t="s">
+        <v>379</v>
+      </c>
+      <c r="T44" t="s">
+        <v>380</v>
+      </c>
+      <c r="U44" t="s">
+        <v>378</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="W44" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="X44" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>202</v>
-      </c>
-      <c r="B45" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" t="s">
-        <v>202</v>
+        <v>139</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D45" s="5">
-        <v>6011478</v>
+        <v>1955483</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="H45">
         <v>2008</v>
       </c>
-      <c r="I45" s="1">
-        <v>39539</v>
+      <c r="I45">
+        <v>2008</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K45" t="s">
         <v>43</v>
@@ -5001,48 +4845,66 @@
         <v>298</v>
       </c>
       <c r="N45" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="O45" t="s">
-        <v>350</v>
+        <v>305</v>
+      </c>
+      <c r="P45" t="s">
+        <v>394</v>
       </c>
       <c r="Q45">
-        <v>41.745700999999997</v>
+        <v>42.871989999999997</v>
       </c>
       <c r="R45">
-        <v>-73.158473999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-73.226607000000001</v>
+      </c>
+      <c r="S45" t="s">
+        <v>379</v>
+      </c>
+      <c r="T45" t="s">
+        <v>380</v>
+      </c>
+      <c r="U45" t="s">
+        <v>378</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" t="s">
-        <v>216</v>
-      </c>
-      <c r="C46" t="s">
-        <v>205</v>
+        <v>143</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="D46" s="5">
-        <v>6011479</v>
+        <v>1955484</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
         <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="H46">
-        <v>2010</v>
-      </c>
-      <c r="I46" s="1">
-        <v>40217</v>
+        <v>2008</v>
+      </c>
+      <c r="I46">
+        <v>2008</v>
       </c>
       <c r="J46" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K46" t="s">
         <v>43</v>
@@ -5054,48 +4916,66 @@
         <v>298</v>
       </c>
       <c r="N46" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="O46" t="s">
-        <v>365</v>
+        <v>305</v>
+      </c>
+      <c r="P46" t="s">
+        <v>394</v>
       </c>
       <c r="Q46">
-        <v>36.509321</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R46">
-        <v>-82.328933000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S46" t="s">
+        <v>379</v>
+      </c>
+      <c r="T46" t="s">
+        <v>380</v>
+      </c>
+      <c r="U46" t="s">
+        <v>378</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="W46" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>208</v>
-      </c>
-      <c r="B47" t="s">
-        <v>219</v>
-      </c>
-      <c r="C47" t="s">
-        <v>208</v>
+        <v>147</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="D47" s="5">
-        <v>6011480</v>
+        <v>1955485</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="H47">
-        <v>2010</v>
-      </c>
-      <c r="I47" s="1">
-        <v>40242</v>
+        <v>2008</v>
+      </c>
+      <c r="I47">
+        <v>2008</v>
       </c>
       <c r="J47" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K47" t="s">
         <v>43</v>
@@ -5107,54 +4987,69 @@
         <v>298</v>
       </c>
       <c r="N47" t="s">
-        <v>355</v>
+        <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>367</v>
+        <v>305</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="Q47">
-        <v>39.69717</v>
+        <v>45.876656556660201</v>
       </c>
       <c r="R47">
-        <v>-78.820670000000007</v>
-      </c>
-      <c r="X47" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-89.628365849641099</v>
+      </c>
+      <c r="S47" t="s">
+        <v>379</v>
+      </c>
+      <c r="T47" t="s">
+        <v>380</v>
+      </c>
+      <c r="U47" t="s">
+        <v>378</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="W47" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" t="s">
-        <v>212</v>
+        <v>126</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D48" s="5">
-        <v>6011481</v>
+        <v>1955486</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="H48">
-        <v>2009</v>
-      </c>
-      <c r="I48" s="1">
-        <v>39882</v>
+        <v>2008</v>
+      </c>
+      <c r="I48">
+        <v>2008</v>
       </c>
       <c r="J48" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="K48" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L48" t="s">
         <v>20</v>
@@ -5163,45 +5058,63 @@
         <v>298</v>
       </c>
       <c r="N48" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
-        <v>353</v>
+        <v>305</v>
+      </c>
+      <c r="P48" t="s">
+        <v>394</v>
       </c>
       <c r="Q48">
-        <v>41.949971359391597</v>
+        <v>43.835385505600499</v>
       </c>
       <c r="R48">
-        <v>-74.288489118822994</v>
+        <v>-92.283091749633499</v>
+      </c>
+      <c r="S48" t="s">
+        <v>379</v>
+      </c>
+      <c r="T48" t="s">
+        <v>380</v>
+      </c>
+      <c r="U48" t="s">
+        <v>378</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="W48" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D49" s="5">
-        <v>6011482</v>
+        <v>6011483</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F49" t="s">
         <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H49">
         <v>2010</v>
       </c>
       <c r="I49" s="1">
-        <v>40205</v>
+        <v>40252</v>
       </c>
       <c r="J49" t="s">
         <v>130</v>
@@ -5213,101 +5126,104 @@
         <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N49" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="O49" t="s">
-        <v>364</v>
+        <v>305</v>
       </c>
       <c r="Q49">
-        <v>43.451169999999998</v>
+        <v>48.174337000000001</v>
       </c>
       <c r="R49">
-        <v>-72.942554999999999</v>
+        <v>80.100126000000003</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="D50" s="5">
-        <v>6011483</v>
+        <v>5755629</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
         <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="H50">
-        <v>2010</v>
-      </c>
-      <c r="I50" s="1">
-        <v>40252</v>
+        <v>2009</v>
+      </c>
+      <c r="I50">
+        <v>2009</v>
       </c>
       <c r="J50" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K50" t="s">
         <v>43</v>
       </c>
-      <c r="L50" t="s">
-        <v>20</v>
+      <c r="L50" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M50" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="N50" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="O50" t="s">
         <v>305</v>
       </c>
       <c r="Q50">
-        <v>48.174337000000001</v>
+        <v>50.788476564399403</v>
       </c>
       <c r="R50">
-        <v>80.100126000000003</v>
+        <v>10.740499703414899</v>
+      </c>
+      <c r="U50" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5">
-        <v>6011484</v>
+        <v>6011467</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>231</v>
+        <v>170</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="H51">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I51" s="1">
-        <v>40275</v>
+        <v>39879</v>
       </c>
       <c r="J51" t="s">
         <v>130</v>
@@ -5315,52 +5231,55 @@
       <c r="K51" t="s">
         <v>43</v>
       </c>
-      <c r="L51" t="s">
-        <v>20</v>
+      <c r="L51" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M51" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="N51" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="O51" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="Q51">
-        <v>36.465316000000001</v>
+        <v>50.788476564399403</v>
       </c>
       <c r="R51">
-        <v>-84.971273999999994</v>
+        <v>10.740499703414899</v>
+      </c>
+      <c r="X51" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D52" s="5">
-        <v>6011488</v>
+        <v>6011468</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>243</v>
+        <v>174</v>
       </c>
       <c r="H52">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="I52" s="1">
-        <v>41011</v>
+        <v>39904</v>
       </c>
       <c r="J52" t="s">
         <v>130</v>
@@ -5368,161 +5287,170 @@
       <c r="K52" t="s">
         <v>43</v>
       </c>
-      <c r="L52" t="s">
-        <v>20</v>
+      <c r="L52" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="N52" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="O52" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q52">
-        <v>45.93694</v>
+        <v>47.083329999999997</v>
       </c>
       <c r="R52">
-        <v>-64.476939999999999</v>
+        <v>8</v>
+      </c>
+      <c r="X52" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="D53" s="5">
-        <v>6011489</v>
+        <v>6011465</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="H53">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="I53" s="1">
-        <v>40987</v>
+        <v>39901</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K53" t="s">
         <v>43</v>
       </c>
-      <c r="L53" t="s">
-        <v>20</v>
+      <c r="L53" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M53" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="N53" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="O53" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="Q53">
-        <v>39.048609999999996</v>
+        <v>47.145499999999998</v>
       </c>
       <c r="R53">
-        <v>-90.88167</v>
+        <v>17.622399999999999</v>
+      </c>
+      <c r="X53" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B54" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D54" s="5">
-        <v>6011490</v>
+        <v>6011496</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="F54" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="H54">
         <v>2011</v>
       </c>
       <c r="I54" s="1">
-        <v>40590</v>
+        <v>40577</v>
       </c>
       <c r="J54" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K54" t="s">
         <v>43</v>
       </c>
-      <c r="L54" t="s">
-        <v>20</v>
+      <c r="L54" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M54" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="O54" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="Q54">
-        <v>36.968234063873403</v>
+        <v>50.45</v>
       </c>
       <c r="R54">
-        <v>-82.639469435652799</v>
+        <v>30.5</v>
+      </c>
+      <c r="X54" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="D55" s="5">
-        <v>6011491</v>
+        <v>6011494</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F55" t="s">
         <v>232</v>
       </c>
       <c r="G55" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="H55">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="I55" s="1">
-        <v>40583</v>
+        <v>40969</v>
       </c>
       <c r="J55" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K55" t="s">
         <v>43</v>
@@ -5534,45 +5462,45 @@
         <v>298</v>
       </c>
       <c r="N55" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O55" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="Q55">
-        <v>36.555458999999999</v>
+        <v>39.838700000000003</v>
       </c>
       <c r="R55">
-        <v>-87.304068999999998</v>
+        <v>-75.563800000000001</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="B56" t="s">
-        <v>252</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="D56" s="5">
-        <v>6011492</v>
+        <v>6011471</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>253</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="H56">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I56" s="1">
-        <v>40572</v>
+        <v>39843</v>
       </c>
       <c r="J56" t="s">
         <v>130</v>
@@ -5587,48 +5515,48 @@
         <v>298</v>
       </c>
       <c r="N56" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="O56" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="Q56">
-        <v>38.229909999999997</v>
+        <v>38.664935999999997</v>
       </c>
       <c r="R56">
-        <v>-86.294910000000002</v>
+        <v>-79.430160999999998</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D57" s="5">
-        <v>6011493</v>
+        <v>11812088</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="H57">
-        <v>2011</v>
-      </c>
-      <c r="I57" s="1">
-        <v>40566</v>
+        <v>2014</v>
+      </c>
+      <c r="I57">
+        <v>2014</v>
       </c>
       <c r="J57" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="K57" t="s">
         <v>43</v>
@@ -5637,51 +5565,51 @@
         <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N57" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="O57" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="Q57">
-        <v>38.702026438267701</v>
+        <v>43.468915000000003</v>
       </c>
       <c r="R57">
-        <v>-86.233603821942907</v>
+        <v>-79.911533000000006</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="D58" s="5">
-        <v>6011494</v>
+        <v>6011482</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="H58">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I58" s="1">
-        <v>40969</v>
+        <v>40205</v>
       </c>
       <c r="J58" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K58" t="s">
         <v>43</v>
@@ -5693,48 +5621,48 @@
         <v>298</v>
       </c>
       <c r="N58" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="O58" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="Q58">
-        <v>39.838700000000003</v>
+        <v>43.451169999999998</v>
       </c>
       <c r="R58">
-        <v>-75.563800000000001</v>
+        <v>-72.942554999999999</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D59" s="5">
-        <v>6011495</v>
+        <v>6011479</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
         <v>51</v>
       </c>
       <c r="G59" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="H59">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I59" s="1">
-        <v>40889</v>
+        <v>40217</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K59" t="s">
         <v>43</v>
@@ -5746,51 +5674,48 @@
         <v>298</v>
       </c>
       <c r="N59" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="O59" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q59">
-        <v>44.349651999999999</v>
+        <v>36.509321</v>
       </c>
       <c r="R59">
-        <v>-68.211070000000007</v>
-      </c>
-      <c r="X59" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-82.328933000000006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="D60" s="5">
-        <v>11812088</v>
+        <v>5755618</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>275</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="I60">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K60" t="s">
         <v>43</v>
@@ -5805,45 +5730,63 @@
         <v>319</v>
       </c>
       <c r="O60" t="s">
-        <v>334</v>
+        <v>320</v>
+      </c>
+      <c r="P60" t="s">
+        <v>406</v>
       </c>
       <c r="Q60">
-        <v>43.468915000000003</v>
+        <v>48.498627856338103</v>
       </c>
       <c r="R60">
-        <v>-79.911533000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-89.227383734950806</v>
+      </c>
+      <c r="S60" t="s">
+        <v>415</v>
+      </c>
+      <c r="T60" t="s">
+        <v>414</v>
+      </c>
+      <c r="U60" t="s">
+        <v>321</v>
+      </c>
+      <c r="V60" t="s">
+        <v>412</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="D61" s="5">
-        <v>11812089</v>
+        <v>5755619</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c r="H61">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="I61">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="J61" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K61" t="s">
         <v>43</v>
@@ -5855,48 +5798,66 @@
         <v>291</v>
       </c>
       <c r="N61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O61" t="s">
-        <v>333</v>
+        <v>320</v>
+      </c>
+      <c r="P61" t="s">
+        <v>406</v>
       </c>
       <c r="Q61">
-        <v>44.992969000000002</v>
+        <v>48.498627856338103</v>
       </c>
       <c r="R61">
-        <v>-64.167955000000006</v>
+        <v>-89.227383734950806</v>
+      </c>
+      <c r="S61" t="s">
+        <v>415</v>
+      </c>
+      <c r="T61" t="s">
+        <v>414</v>
+      </c>
+      <c r="U61" t="s">
+        <v>321</v>
+      </c>
+      <c r="V61" t="s">
+        <v>413</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="D62" s="5">
-        <v>11812090</v>
+        <v>5755623</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="H62">
-        <v>2012</v>
-      </c>
-      <c r="I62" s="1">
-        <v>40967</v>
+        <v>2015</v>
+      </c>
+      <c r="I62">
+        <v>2015</v>
       </c>
       <c r="J62" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="K62" t="s">
         <v>43</v>
@@ -5908,48 +5869,51 @@
         <v>291</v>
       </c>
       <c r="N62" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="O62" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="Q62">
-        <v>45.300289999999997</v>
+        <v>48.498627856338103</v>
       </c>
       <c r="R62">
-        <v>-66.050550000000001</v>
+        <v>-89.227383734950806</v>
+      </c>
+      <c r="U62" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="D63" s="5">
-        <v>11812091</v>
+        <v>6011481</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="F63" t="s">
         <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="H63">
-        <v>2012</v>
-      </c>
-      <c r="I63">
-        <v>2012</v>
+        <v>2009</v>
+      </c>
+      <c r="I63" s="1">
+        <v>39882</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="K63" t="s">
         <v>43</v>
@@ -5958,308 +5922,266 @@
         <v>20</v>
       </c>
       <c r="M63" t="s">
+        <v>298</v>
+      </c>
+      <c r="N63" t="s">
+        <v>299</v>
+      </c>
+      <c r="O63" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q63">
+        <v>41.949971359391597</v>
+      </c>
+      <c r="R63">
+        <v>-74.288489118822994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="5">
+        <v>6011470</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
+        <v>180</v>
+      </c>
+      <c r="H64">
+        <v>2009</v>
+      </c>
+      <c r="I64" s="1">
+        <v>39990</v>
+      </c>
+      <c r="J64" t="s">
+        <v>130</v>
+      </c>
+      <c r="K64" t="s">
+        <v>43</v>
+      </c>
+      <c r="L64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
+        <v>298</v>
+      </c>
+      <c r="N64" t="s">
+        <v>341</v>
+      </c>
+      <c r="O64" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q64">
+        <v>40.877385651285401</v>
+      </c>
+      <c r="R64">
+        <v>-74.968855407371393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="5">
+        <v>6011493</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" t="s">
+        <v>257</v>
+      </c>
+      <c r="H65">
+        <v>2011</v>
+      </c>
+      <c r="I65" s="1">
+        <v>40566</v>
+      </c>
+      <c r="J65" t="s">
+        <v>193</v>
+      </c>
+      <c r="K65" t="s">
+        <v>43</v>
+      </c>
+      <c r="L65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" t="s">
+        <v>298</v>
+      </c>
+      <c r="N65" t="s">
+        <v>356</v>
+      </c>
+      <c r="O65" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q65">
+        <v>38.702026438267701</v>
+      </c>
+      <c r="R65">
+        <v>-86.233603821942907</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="5">
+        <v>5755624</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s">
+        <v>51</v>
+      </c>
+      <c r="G66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66">
+        <v>2015</v>
+      </c>
+      <c r="I66">
+        <v>2015</v>
+      </c>
+      <c r="J66" t="s">
+        <v>42</v>
+      </c>
+      <c r="K66" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" t="s">
         <v>291</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N66" t="s">
         <v>292</v>
       </c>
-      <c r="O63" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q63">
-        <v>45.93694</v>
-      </c>
-      <c r="R63">
-        <v>-64.476939999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="5">
-        <v>3411506</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64">
-        <v>2010</v>
-      </c>
-      <c r="I64">
-        <v>2010</v>
-      </c>
-      <c r="J64" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" t="s">
-        <v>19</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M64" t="s">
-        <v>314</v>
-      </c>
-      <c r="N64" t="s">
-        <v>315</v>
-      </c>
-      <c r="O64" t="s">
-        <v>316</v>
-      </c>
-      <c r="P64" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q64">
-        <v>49.954439999999998</v>
-      </c>
-      <c r="R64">
-        <v>14.175829999999999</v>
-      </c>
-      <c r="U64" t="s">
-        <v>403</v>
-      </c>
-      <c r="V64" t="s">
-        <v>401</v>
-      </c>
-      <c r="W64" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B65" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="5">
-        <v>3411507</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>30</v>
-      </c>
-      <c r="H65">
-        <v>2010</v>
-      </c>
-      <c r="I65">
-        <v>2010</v>
-      </c>
-      <c r="J65" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" t="s">
-        <v>19</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M65" t="s">
-        <v>314</v>
-      </c>
-      <c r="N65" t="s">
-        <v>315</v>
-      </c>
-      <c r="O65" t="s">
-        <v>316</v>
-      </c>
-      <c r="P65" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q65">
-        <v>49.954439999999998</v>
-      </c>
-      <c r="R65">
-        <v>14.175829999999999</v>
-      </c>
-      <c r="U65" t="s">
-        <v>403</v>
-      </c>
-      <c r="V65" t="s">
-        <v>17</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
-      </c>
-      <c r="D66" s="5">
-        <v>3411508</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66">
-        <v>2011</v>
-      </c>
-      <c r="I66">
-        <v>2011</v>
-      </c>
-      <c r="J66" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" t="s">
-        <v>19</v>
-      </c>
-      <c r="L66" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M66" t="s">
-        <v>314</v>
-      </c>
-      <c r="N66" t="s">
-        <v>317</v>
-      </c>
       <c r="O66" t="s">
-        <v>318</v>
-      </c>
-      <c r="P66" t="s">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="Q66">
-        <v>50.693460000000002</v>
+        <v>45.913153999999999</v>
       </c>
       <c r="R66">
-        <v>15.84652</v>
+        <v>-64.671137999999999</v>
       </c>
       <c r="U66" t="s">
-        <v>405</v>
-      </c>
-      <c r="V66" t="s">
-        <v>24</v>
-      </c>
-      <c r="W66" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D67" s="5">
-        <v>3411509</v>
+        <v>5755627</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="H67">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="I67">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J67" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K67" t="s">
-        <v>19</v>
-      </c>
-      <c r="L67" s="10" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="L67" t="s">
+        <v>20</v>
       </c>
       <c r="M67" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N67" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="O67" t="s">
-        <v>318</v>
-      </c>
-      <c r="P67" t="s">
-        <v>402</v>
+        <v>293</v>
       </c>
       <c r="Q67">
-        <v>50.693460000000002</v>
+        <v>45.913153999999999</v>
       </c>
       <c r="R67">
-        <v>15.84652</v>
+        <v>-64.671137999999999</v>
       </c>
       <c r="U67" t="s">
-        <v>405</v>
-      </c>
-      <c r="V67" t="s">
-        <v>30</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>400</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D68" s="5">
-        <v>5755629</v>
+        <v>5757331</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
         <v>51</v>
       </c>
       <c r="G68" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="H68">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="I68">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="J68" t="s">
         <v>42</v>
@@ -6267,428 +6189,506 @@
       <c r="K68" t="s">
         <v>43</v>
       </c>
-      <c r="L68" s="10" t="s">
-        <v>25</v>
+      <c r="L68" t="s">
+        <v>20</v>
       </c>
       <c r="M68" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="N68" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="O68" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="Q68">
-        <v>50.788476564399403</v>
+        <v>45.913153999999999</v>
       </c>
       <c r="R68">
-        <v>10.740499703414899</v>
+        <v>-64.671137999999999</v>
       </c>
       <c r="U68" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="D69" s="5">
-        <v>6011467</v>
+        <v>5755634</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
         <v>51</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="H69">
-        <v>2009</v>
-      </c>
-      <c r="I69" s="1">
-        <v>39879</v>
+        <v>2008</v>
+      </c>
+      <c r="I69">
+        <v>2008</v>
       </c>
       <c r="J69" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K69" t="s">
         <v>43</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>25</v>
+      <c r="L69" t="s">
+        <v>20</v>
       </c>
       <c r="M69" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N69" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="O69" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q69">
-        <v>50.788476564399403</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R69">
-        <v>10.740499703414899</v>
-      </c>
-      <c r="X69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="U69" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="D70" s="5">
-        <v>6011468</v>
+        <v>1952982</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
         <v>51</v>
       </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="H70">
-        <v>2009</v>
-      </c>
-      <c r="I70" s="1">
-        <v>39904</v>
+        <v>2008</v>
+      </c>
+      <c r="I70">
+        <v>2008</v>
       </c>
       <c r="J70" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K70" t="s">
         <v>43</v>
       </c>
-      <c r="L70" s="10" t="s">
-        <v>25</v>
+      <c r="L70" t="s">
+        <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="N70" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="O70" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q70">
-        <v>47.083329999999997</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R70">
-        <v>8</v>
-      </c>
-      <c r="X70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S70" t="s">
+        <v>379</v>
+      </c>
+      <c r="T70" t="s">
+        <v>380</v>
+      </c>
+      <c r="U70" t="s">
+        <v>378</v>
+      </c>
+      <c r="V70" t="s">
+        <v>384</v>
+      </c>
+      <c r="W70" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="D71" s="5">
-        <v>6011465</v>
+        <v>29259</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="F71" t="s">
         <v>51</v>
       </c>
       <c r="G71" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="H71">
         <v>2009</v>
       </c>
       <c r="I71" s="1">
-        <v>39901</v>
+        <v>40073</v>
       </c>
       <c r="J71" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="K71" t="s">
-        <v>43</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="L71" t="s">
+        <v>20</v>
       </c>
       <c r="M71" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="N71" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="O71" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q71">
-        <v>47.145499999999998</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R71">
-        <v>17.622399999999999</v>
-      </c>
-      <c r="X71" t="s">
-        <v>26</v>
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S71" t="s">
+        <v>381</v>
+      </c>
+      <c r="T71" t="s">
+        <v>382</v>
+      </c>
+      <c r="U71" t="s">
+        <v>330</v>
+      </c>
+      <c r="V71" t="s">
+        <v>384</v>
+      </c>
+      <c r="W71" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="D72" s="5">
-        <v>6011496</v>
+        <v>29260</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="F72" t="s">
         <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="H72">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I72" s="1">
-        <v>40577</v>
+        <v>40073</v>
       </c>
       <c r="J72" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="K72" t="s">
-        <v>43</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="L72" t="s">
+        <v>20</v>
       </c>
       <c r="M72" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="N72" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O72" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="Q72">
-        <v>50.45</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R72">
-        <v>30.5</v>
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S72" t="s">
+        <v>381</v>
+      </c>
+      <c r="T72" t="s">
+        <v>382</v>
+      </c>
+      <c r="U72" t="s">
+        <v>330</v>
+      </c>
+      <c r="V72" t="s">
+        <v>384</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="X72" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="D73" s="5">
-        <v>6011497</v>
+        <v>31784</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="H73">
         <v>2009</v>
       </c>
       <c r="I73" s="1">
-        <v>39884</v>
+        <v>40073</v>
       </c>
       <c r="J73" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="K73" t="s">
         <v>43</v>
       </c>
-      <c r="L73" s="10" t="s">
-        <v>25</v>
+      <c r="L73" t="s">
+        <v>20</v>
       </c>
       <c r="M73" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="N73" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
       <c r="O73" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="Q73">
-        <v>45.1</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R73">
-        <v>0.7</v>
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S73" t="s">
+        <v>381</v>
+      </c>
+      <c r="T73" t="s">
+        <v>382</v>
+      </c>
+      <c r="U73" t="s">
+        <v>330</v>
+      </c>
+      <c r="V73" t="s">
+        <v>384</v>
+      </c>
+      <c r="W73" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="X73" t="s">
-        <v>26</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D74" s="5">
-        <v>6011486</v>
+        <v>107675</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="H74">
-        <v>2016</v>
-      </c>
-      <c r="I74">
-        <v>2016</v>
+        <v>2009</v>
+      </c>
+      <c r="I74" s="1">
+        <v>40073</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="K74" t="s">
         <v>43</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>236</v>
+      <c r="L74" t="s">
+        <v>20</v>
       </c>
       <c r="M74" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="N74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="O74" t="s">
-        <v>237</v>
+        <v>328</v>
       </c>
       <c r="Q74">
-        <v>46.823079999999997</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R74">
-        <v>102.503703</v>
+        <v>-74.098548155198898</v>
+      </c>
+      <c r="S74" t="s">
+        <v>381</v>
+      </c>
+      <c r="T74" t="s">
+        <v>382</v>
+      </c>
+      <c r="U74" t="s">
+        <v>330</v>
+      </c>
+      <c r="V74" t="s">
+        <v>384</v>
+      </c>
+      <c r="W74" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="X74" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="D75" s="5">
-        <v>6011487</v>
+        <v>6011490</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F75" t="s">
         <v>232</v>
       </c>
       <c r="G75" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H75">
-        <v>2016</v>
-      </c>
-      <c r="I75">
-        <v>2016</v>
+        <v>2011</v>
+      </c>
+      <c r="I75" s="1">
+        <v>40590</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K75" t="s">
         <v>43</v>
       </c>
-      <c r="L75" s="10" t="s">
-        <v>236</v>
+      <c r="L75" t="s">
+        <v>20</v>
       </c>
       <c r="M75" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="N75" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="O75" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="Q75">
-        <v>46.823079999999997</v>
+        <v>36.968234063873403</v>
       </c>
       <c r="R75">
-        <v>102.503703</v>
+        <v>-82.639469435652799</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W30" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
+    <hyperlink ref="W71" r:id="rId1" xr:uid="{284B8577-A355-764F-BF48-D4997E30226F}"/>
     <hyperlink ref="W3:W5" r:id="rId2" display="https://www.broadinstitute.org/fungal-genome-initiative/geomyces-destructans-genome-project" xr:uid="{E529C3A8-F634-424D-A336-C24E2974FB85}"/>
-    <hyperlink ref="W22" r:id="rId3" xr:uid="{FF3869F2-7E6B-564D-B22A-72301C0CD2D9}"/>
+    <hyperlink ref="W70" r:id="rId3" xr:uid="{FF3869F2-7E6B-564D-B22A-72301C0CD2D9}"/>
     <hyperlink ref="W7:W13" r:id="rId4" display="https://doi.org/10.1038/s41467-017-02441-z" xr:uid="{FE3B581E-1BDF-7147-B4C6-D87A8EF543CC}"/>
-    <hyperlink ref="W66" r:id="rId5" xr:uid="{0CBBFC48-3FDD-3848-9FEF-469016A3D5BA}"/>
-    <hyperlink ref="W24" r:id="rId6" xr:uid="{F8807A9D-D241-9243-BABA-D5FFA95D12B7}"/>
+    <hyperlink ref="W22" r:id="rId5" xr:uid="{0CBBFC48-3FDD-3848-9FEF-469016A3D5BA}"/>
+    <hyperlink ref="W43" r:id="rId6" xr:uid="{F8807A9D-D241-9243-BABA-D5FFA95D12B7}"/>
     <hyperlink ref="W2" r:id="rId7" xr:uid="{EC6F4932-8C94-F740-9969-1B4806139AE2}"/>
-    <hyperlink ref="W43" r:id="rId8" xr:uid="{CD5A617C-B212-8841-BF6B-C6AF934AFEB4}"/>
-    <hyperlink ref="W44" r:id="rId9" xr:uid="{E51461B0-4697-2E4B-923D-E3A487F55731}"/>
-    <hyperlink ref="X47" r:id="rId10" location="close --&gt; used to find  most clustered group of caves in the county" xr:uid="{1B33691D-2B9D-444D-B152-753EAD15C64B}"/>
-    <hyperlink ref="X59" r:id="rId11" xr:uid="{EC6D59AD-B4FE-6649-8CCF-430C3D187F22}"/>
+    <hyperlink ref="W24" r:id="rId8" xr:uid="{CD5A617C-B212-8841-BF6B-C6AF934AFEB4}"/>
+    <hyperlink ref="W3" r:id="rId9" xr:uid="{E51461B0-4697-2E4B-923D-E3A487F55731}"/>
+    <hyperlink ref="X4" r:id="rId10" location="close --&gt; used to find  most clustered group of caves in the county" xr:uid="{1B33691D-2B9D-444D-B152-753EAD15C64B}"/>
+    <hyperlink ref="X20" r:id="rId11" xr:uid="{EC6D59AD-B4FE-6649-8CCF-430C3D187F22}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/01_pd-samples/25_12-01_pd_samples-edited.xlsx
+++ b/data/01_pd-samples/25_12-01_pd_samples-edited.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caprinapugliese/Documents/School/Uconn/2024-26_Grad_School/Dagilis-lab/WNS-project/data/01_pd-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE49053A-6670-5549-981D-F056B45D3398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D4AA0C-F894-5D47-867C-36BCB89380BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4760" yWindow="1120" windowWidth="31740" windowHeight="18680" xr2:uid="{D99E271A-162C-F24C-8D0E-BBA6ED327C07}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="420">
   <si>
     <t>sample_id</t>
   </si>
@@ -1291,6 +1291,9 @@
   </si>
   <si>
     <t>https://www.nps.gov/articles/000/bats-in-acadia-facing-challenges-but-hanging-on.htm &lt;-- good article on bats in acadia national park</t>
+  </si>
+  <si>
+    <t>Pd_N. American</t>
   </si>
 </sst>
 </file>
@@ -2250,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4D9535-1238-AB48-B467-419735026371}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="C44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4588,107 +4591,92 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>126</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
       </c>
       <c r="D42" s="5">
-        <v>1955487</v>
+        <v>5755629</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
         <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="H42">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="I42">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="J42" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="K42" t="s">
         <v>43</v>
       </c>
-      <c r="L42" t="s">
-        <v>20</v>
+      <c r="L42" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="N42" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="O42" t="s">
         <v>305</v>
       </c>
-      <c r="P42" t="s">
-        <v>394</v>
-      </c>
       <c r="Q42">
-        <v>43.835385505600499</v>
+        <v>50.788476564399403</v>
       </c>
       <c r="R42">
-        <v>-92.283091749633499</v>
-      </c>
-      <c r="S42" t="s">
-        <v>379</v>
-      </c>
-      <c r="T42" t="s">
-        <v>380</v>
+        <v>10.740499703414899</v>
       </c>
       <c r="U42" t="s">
-        <v>378</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="W42" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="51" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D43" s="5">
-        <v>1955239</v>
+        <v>1955487</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
         <v>51</v>
       </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H43">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="I43">
-        <v>1960</v>
+        <v>2008</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s">
         <v>43</v>
@@ -4700,19 +4688,19 @@
         <v>298</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s">
         <v>305</v>
       </c>
       <c r="P43" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q43">
-        <v>45.876656556660201</v>
+        <v>43.835385505600499</v>
       </c>
       <c r="R43">
-        <v>-89.628365849641099</v>
+        <v>-92.283091749633499</v>
       </c>
       <c r="S43" t="s">
         <v>379</v>
@@ -4724,42 +4712,39 @@
         <v>378</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="W43" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="X43" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="5">
-        <v>1955482</v>
+        <v>1955239</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H44">
-        <v>2002</v>
+        <v>1960</v>
       </c>
       <c r="I44">
-        <v>2002</v>
+        <v>1960</v>
       </c>
       <c r="J44" t="s">
         <v>117</v>
@@ -4771,22 +4756,22 @@
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O44" t="s">
         <v>305</v>
       </c>
       <c r="P44" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q44">
-        <v>53.933300000000003</v>
+        <v>45.876656556660201</v>
       </c>
       <c r="R44">
-        <v>-116.5765</v>
+        <v>-89.628365849641099</v>
       </c>
       <c r="S44" t="s">
         <v>379</v>
@@ -4798,39 +4783,42 @@
         <v>378</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="W44" s="6" t="s">
         <v>386</v>
       </c>
+      <c r="X44" s="2" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="45" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" s="5">
-        <v>1955483</v>
+        <v>1955482</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H45">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="I45">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="J45" t="s">
         <v>117</v>
@@ -4842,22 +4830,22 @@
         <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O45" t="s">
         <v>305</v>
       </c>
       <c r="P45" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q45">
-        <v>42.871989999999997</v>
+        <v>53.933300000000003</v>
       </c>
       <c r="R45">
-        <v>-73.226607000000001</v>
+        <v>-116.5765</v>
       </c>
       <c r="S45" t="s">
         <v>379</v>
@@ -4869,7 +4857,7 @@
         <v>378</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="W45" s="6" t="s">
         <v>386</v>
@@ -4877,25 +4865,25 @@
     </row>
     <row r="46" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="5">
-        <v>1955484</v>
+        <v>1955483</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F46" t="s">
         <v>51</v>
       </c>
       <c r="G46" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H46">
         <v>2008</v>
@@ -4916,7 +4904,7 @@
         <v>298</v>
       </c>
       <c r="N46" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="O46" t="s">
         <v>305</v>
@@ -4925,10 +4913,10 @@
         <v>394</v>
       </c>
       <c r="Q46">
-        <v>41.844515371877698</v>
+        <v>42.871989999999997</v>
       </c>
       <c r="R46">
-        <v>-74.098548155198898</v>
+        <v>-73.226607000000001</v>
       </c>
       <c r="S46" t="s">
         <v>379</v>
@@ -4940,7 +4928,7 @@
         <v>378</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="W46" s="6" t="s">
         <v>386</v>
@@ -4948,25 +4936,25 @@
     </row>
     <row r="47" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D47" s="5">
-        <v>1955485</v>
+        <v>1955484</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
         <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H47">
         <v>2008</v>
@@ -4987,19 +4975,19 @@
         <v>298</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O47" t="s">
         <v>305</v>
       </c>
-      <c r="P47" s="2" t="s">
-        <v>407</v>
+      <c r="P47" t="s">
+        <v>394</v>
       </c>
       <c r="Q47">
-        <v>45.876656556660201</v>
+        <v>41.844515371877698</v>
       </c>
       <c r="R47">
-        <v>-89.628365849641099</v>
+        <v>-74.098548155198898</v>
       </c>
       <c r="S47" t="s">
         <v>379</v>
@@ -5011,7 +4999,7 @@
         <v>378</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="W47" s="6" t="s">
         <v>386</v>
@@ -5019,25 +5007,25 @@
     </row>
     <row r="48" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D48" s="5">
-        <v>1955486</v>
+        <v>1955485</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H48">
         <v>2008</v>
@@ -5046,10 +5034,10 @@
         <v>2008</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="K48" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="L48" t="s">
         <v>20</v>
@@ -5058,19 +5046,19 @@
         <v>298</v>
       </c>
       <c r="N48" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O48" t="s">
         <v>305</v>
       </c>
-      <c r="P48" t="s">
-        <v>394</v>
+      <c r="P48" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="Q48">
-        <v>43.835385505600499</v>
+        <v>45.876656556660201</v>
       </c>
       <c r="R48">
-        <v>-92.283091749633499</v>
+        <v>-89.628365849641099</v>
       </c>
       <c r="S48" t="s">
         <v>379</v>
@@ -5082,95 +5070,113 @@
         <v>378</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W48" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" t="s">
-        <v>138</v>
+        <v>126</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D49" s="5">
-        <v>6011483</v>
+        <v>1955486</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="F49" t="s">
         <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="H49">
-        <v>2010</v>
-      </c>
-      <c r="I49" s="1">
-        <v>40252</v>
+        <v>2008</v>
+      </c>
+      <c r="I49">
+        <v>2008</v>
       </c>
       <c r="J49" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="K49" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L49" t="s">
         <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N49" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="O49" t="s">
         <v>305</v>
       </c>
+      <c r="P49" t="s">
+        <v>394</v>
+      </c>
       <c r="Q49">
-        <v>48.174337000000001</v>
+        <v>43.835385505600499</v>
       </c>
       <c r="R49">
-        <v>80.100126000000003</v>
+        <v>-92.283091749633499</v>
+      </c>
+      <c r="S49" t="s">
+        <v>379</v>
+      </c>
+      <c r="T49" t="s">
+        <v>380</v>
+      </c>
+      <c r="U49" t="s">
+        <v>378</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="W49" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="D50" s="5">
-        <v>5755629</v>
+        <v>6011467</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
         <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="H50">
         <v>2009</v>
       </c>
-      <c r="I50">
-        <v>2009</v>
+      <c r="I50" s="1">
+        <v>39879</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s">
         <v>43</v>
@@ -5193,37 +5199,37 @@
       <c r="R50">
         <v>10.740499703414899</v>
       </c>
-      <c r="U50" t="s">
-        <v>325</v>
+      <c r="X50" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D51" s="5">
-        <v>6011467</v>
+        <v>6011468</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H51">
         <v>2009</v>
       </c>
       <c r="I51" s="1">
-        <v>39879</v>
+        <v>39904</v>
       </c>
       <c r="J51" t="s">
         <v>130</v>
@@ -5235,19 +5241,19 @@
         <v>25</v>
       </c>
       <c r="M51" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="N51" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="O51" t="s">
         <v>305</v>
       </c>
       <c r="Q51">
-        <v>50.788476564399403</v>
+        <v>47.083329999999997</v>
       </c>
       <c r="R51">
-        <v>10.740499703414899</v>
+        <v>8</v>
       </c>
       <c r="X51" t="s">
         <v>26</v>
@@ -5255,31 +5261,31 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="D52" s="5">
-        <v>6011468</v>
+        <v>6011465</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
         <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="H52">
         <v>2009</v>
       </c>
       <c r="I52" s="1">
-        <v>39904</v>
+        <v>39901</v>
       </c>
       <c r="J52" t="s">
         <v>130</v>
@@ -5291,19 +5297,19 @@
         <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O52" t="s">
         <v>305</v>
       </c>
       <c r="Q52">
-        <v>47.083329999999997</v>
+        <v>47.145499999999998</v>
       </c>
       <c r="R52">
-        <v>8</v>
+        <v>17.622399999999999</v>
       </c>
       <c r="X52" t="s">
         <v>26</v>
@@ -5311,31 +5317,31 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="D53" s="5">
-        <v>6011465</v>
+        <v>6011483</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="F53" t="s">
         <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H53">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="I53" s="1">
-        <v>39901</v>
+        <v>40252</v>
       </c>
       <c r="J53" t="s">
         <v>130</v>
@@ -5343,26 +5349,23 @@
       <c r="K53" t="s">
         <v>43</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>25</v>
+      <c r="L53" t="s">
+        <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="O53" t="s">
         <v>305</v>
       </c>
       <c r="Q53">
-        <v>47.145499999999998</v>
+        <v>48.174337000000001</v>
       </c>
       <c r="R53">
-        <v>17.622399999999999</v>
-      </c>
-      <c r="X53" t="s">
-        <v>26</v>
+        <v>80.100126000000003</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
@@ -6257,14 +6260,23 @@
       <c r="O69" t="s">
         <v>300</v>
       </c>
+      <c r="P69" t="s">
+        <v>406</v>
+      </c>
       <c r="Q69">
         <v>41.844515371877698</v>
       </c>
       <c r="R69">
         <v>-74.098548155198898</v>
       </c>
+      <c r="S69" t="s">
+        <v>415</v>
+      </c>
       <c r="U69" t="s">
         <v>325</v>
+      </c>
+      <c r="V69" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="51" x14ac:dyDescent="0.2">
@@ -6683,7 +6695,7 @@
     <hyperlink ref="W70" r:id="rId3" xr:uid="{FF3869F2-7E6B-564D-B22A-72301C0CD2D9}"/>
     <hyperlink ref="W7:W13" r:id="rId4" display="https://doi.org/10.1038/s41467-017-02441-z" xr:uid="{FE3B581E-1BDF-7147-B4C6-D87A8EF543CC}"/>
     <hyperlink ref="W22" r:id="rId5" xr:uid="{0CBBFC48-3FDD-3848-9FEF-469016A3D5BA}"/>
-    <hyperlink ref="W43" r:id="rId6" xr:uid="{F8807A9D-D241-9243-BABA-D5FFA95D12B7}"/>
+    <hyperlink ref="W44" r:id="rId6" xr:uid="{F8807A9D-D241-9243-BABA-D5FFA95D12B7}"/>
     <hyperlink ref="W2" r:id="rId7" xr:uid="{EC6F4932-8C94-F740-9969-1B4806139AE2}"/>
     <hyperlink ref="W24" r:id="rId8" xr:uid="{CD5A617C-B212-8841-BF6B-C6AF934AFEB4}"/>
     <hyperlink ref="W3" r:id="rId9" xr:uid="{E51461B0-4697-2E4B-923D-E3A487F55731}"/>
